--- a/Scipper - Tests.xlsx
+++ b/Scipper - Tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateusz.wysocki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateusz.wysocki\Documents\AL\IMW_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E5844E-D6B5-4073-B86D-49A94419781E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EFBF0E-FE10-465C-AF98-859E5779BAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scipper GT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7917" uniqueCount="2956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7937" uniqueCount="2961">
   <si>
     <t>Area</t>
   </si>
@@ -8831,9 +8831,6 @@
     <t>Mateusz</t>
   </si>
   <si>
-    <t>IMW Sales &amp; Rece. Setup Tests</t>
-  </si>
-  <si>
     <t>CheckIfUserSelectNoFromConfirmWindow</t>
   </si>
   <si>
@@ -8867,24 +8864,12 @@
     <t>"Auto Assign To Disc. Group" action is started in Customer Card page.</t>
   </si>
   <si>
-    <t>Customer is allocated to discount group. New record is added to "Assign To Cust. Disc. Group History"</t>
-  </si>
-  <si>
     <t>Value of Auto Assigned Cust. Disc. Group is true. Status is "Released".</t>
   </si>
   <si>
     <t>"Auto Assign Customers To Disc. Group" action is started in Auto Ass. Disc. Group page.</t>
   </si>
   <si>
-    <t>All Customers are in discount group. New records are added to "Assign To Cust. Disc. Group History"</t>
-  </si>
-  <si>
-    <t>"Auto Assign Customers To Disc. Group" action is started in Auto Ass. Disc. Group page. Option "Yes" is selected from Confirm window.</t>
-  </si>
-  <si>
-    <t>Action is runned for all customers. All Customers are in discount group. New records is added to "Assign To Cust. Disc. Group History"</t>
-  </si>
-  <si>
     <t>Customer is added to Sales Order.</t>
   </si>
   <si>
@@ -8922,6 +8907,36 @@
   </si>
   <si>
     <t>Matuesz</t>
+  </si>
+  <si>
+    <t>IMW AA Cust. Disc. Gr. Tests</t>
+  </si>
+  <si>
+    <t>StatusChangeForReleased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StatusNoChangeForReleased </t>
+  </si>
+  <si>
+    <t>CustomerAutoAssignedToDiscGroup</t>
+  </si>
+  <si>
+    <t>CustomerAutoAssignedToDiscGroupHistory</t>
+  </si>
+  <si>
+    <t>New record is added to "Assign To Cust. Disc. Group History"</t>
+  </si>
+  <si>
+    <t>Customer is allocated to discount group.</t>
+  </si>
+  <si>
+    <t>New records are added to "Assign To Cust. Disc. Group History"</t>
+  </si>
+  <si>
+    <t>CustomersAutoAssignedToDiscGroupHistory</t>
+  </si>
+  <si>
+    <t>ErrorCustomerAddedToSalesDocument</t>
   </si>
 </sst>
 </file>
@@ -9053,7 +9068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9092,12 +9107,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22877,22 +22891,22 @@
       </c>
     </row>
     <row r="387" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B387" s="19" t="s">
+      <c r="B387" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="C387" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D387" s="19" t="s">
+      <c r="C387" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" s="16" t="s">
         <v>1526</v>
       </c>
       <c r="E387" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F387" s="19" t="s">
+      <c r="F387" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="G387" s="19" t="s">
+      <c r="G387" s="16" t="s">
         <v>1529</v>
       </c>
       <c r="H387" s="17" t="s">
@@ -22909,64 +22923,64 @@
       </c>
     </row>
     <row r="388" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B388" s="19"/>
-      <c r="C388" s="19"/>
-      <c r="D388" s="19"/>
+      <c r="B388" s="16"/>
+      <c r="C388" s="16"/>
+      <c r="D388" s="16"/>
       <c r="E388" s="6" t="s">
         <v>1532</v>
       </c>
-      <c r="F388" s="19"/>
-      <c r="G388" s="19"/>
+      <c r="F388" s="16"/>
+      <c r="G388" s="16"/>
       <c r="H388" s="17"/>
       <c r="I388" s="17"/>
       <c r="J388" s="18"/>
       <c r="K388" s="18"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B389" s="19"/>
-      <c r="C389" s="19"/>
-      <c r="D389" s="19"/>
+      <c r="B389" s="16"/>
+      <c r="C389" s="16"/>
+      <c r="D389" s="16"/>
       <c r="E389" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="F389" s="19"/>
-      <c r="G389" s="19"/>
+      <c r="F389" s="16"/>
+      <c r="G389" s="16"/>
       <c r="H389" s="17"/>
       <c r="I389" s="17"/>
       <c r="J389" s="18"/>
       <c r="K389" s="18"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B390" s="19"/>
-      <c r="C390" s="19"/>
-      <c r="D390" s="19"/>
+      <c r="B390" s="16"/>
+      <c r="C390" s="16"/>
+      <c r="D390" s="16"/>
       <c r="E390" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F390" s="19"/>
-      <c r="G390" s="19"/>
+      <c r="F390" s="16"/>
+      <c r="G390" s="16"/>
       <c r="H390" s="17"/>
       <c r="I390" s="17"/>
       <c r="J390" s="18"/>
       <c r="K390" s="18"/>
     </row>
     <row r="391" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B391" s="19" t="s">
+      <c r="B391" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="C391" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D391" s="19" t="s">
+      <c r="C391" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D391" s="16" t="s">
         <v>1534</v>
       </c>
       <c r="E391" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F391" s="19" t="s">
+      <c r="F391" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="G391" s="19" t="s">
+      <c r="G391" s="16" t="s">
         <v>1535</v>
       </c>
       <c r="H391" s="17" t="s">
@@ -22983,64 +22997,64 @@
       </c>
     </row>
     <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B392" s="19"/>
-      <c r="C392" s="19"/>
-      <c r="D392" s="19"/>
+      <c r="B392" s="16"/>
+      <c r="C392" s="16"/>
+      <c r="D392" s="16"/>
       <c r="E392" s="6" t="s">
         <v>1532</v>
       </c>
-      <c r="F392" s="19"/>
-      <c r="G392" s="19"/>
+      <c r="F392" s="16"/>
+      <c r="G392" s="16"/>
       <c r="H392" s="17"/>
       <c r="I392" s="17"/>
       <c r="J392" s="18"/>
       <c r="K392" s="18"/>
     </row>
     <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B393" s="19"/>
-      <c r="C393" s="19"/>
-      <c r="D393" s="19"/>
+      <c r="B393" s="16"/>
+      <c r="C393" s="16"/>
+      <c r="D393" s="16"/>
       <c r="E393" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="F393" s="19"/>
-      <c r="G393" s="19"/>
+      <c r="F393" s="16"/>
+      <c r="G393" s="16"/>
       <c r="H393" s="17"/>
       <c r="I393" s="17"/>
       <c r="J393" s="18"/>
       <c r="K393" s="18"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B394" s="19"/>
-      <c r="C394" s="19"/>
-      <c r="D394" s="19"/>
+      <c r="B394" s="16"/>
+      <c r="C394" s="16"/>
+      <c r="D394" s="16"/>
       <c r="E394" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F394" s="19"/>
-      <c r="G394" s="19"/>
+      <c r="F394" s="16"/>
+      <c r="G394" s="16"/>
       <c r="H394" s="17"/>
       <c r="I394" s="17"/>
       <c r="J394" s="18"/>
       <c r="K394" s="18"/>
     </row>
     <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B395" s="19" t="s">
+      <c r="B395" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="C395" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D395" s="19" t="s">
+      <c r="C395" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D395" s="16" t="s">
         <v>1538</v>
       </c>
       <c r="E395" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F395" s="19" t="s">
+      <c r="F395" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="G395" s="19" t="s">
+      <c r="G395" s="16" t="s">
         <v>1539</v>
       </c>
       <c r="H395" s="17" t="s">
@@ -23057,64 +23071,64 @@
       </c>
     </row>
     <row r="396" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B396" s="19"/>
-      <c r="C396" s="19"/>
-      <c r="D396" s="19"/>
+      <c r="B396" s="16"/>
+      <c r="C396" s="16"/>
+      <c r="D396" s="16"/>
       <c r="E396" s="6" t="s">
         <v>1532</v>
       </c>
-      <c r="F396" s="19"/>
-      <c r="G396" s="19"/>
+      <c r="F396" s="16"/>
+      <c r="G396" s="16"/>
       <c r="H396" s="17"/>
       <c r="I396" s="17"/>
       <c r="J396" s="18"/>
       <c r="K396" s="18"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B397" s="19"/>
-      <c r="C397" s="19"/>
-      <c r="D397" s="19"/>
+      <c r="B397" s="16"/>
+      <c r="C397" s="16"/>
+      <c r="D397" s="16"/>
       <c r="E397" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="F397" s="19"/>
-      <c r="G397" s="19"/>
+      <c r="F397" s="16"/>
+      <c r="G397" s="16"/>
       <c r="H397" s="17"/>
       <c r="I397" s="17"/>
       <c r="J397" s="18"/>
       <c r="K397" s="18"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B398" s="19"/>
-      <c r="C398" s="19"/>
-      <c r="D398" s="19"/>
+      <c r="B398" s="16"/>
+      <c r="C398" s="16"/>
+      <c r="D398" s="16"/>
       <c r="E398" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F398" s="19"/>
-      <c r="G398" s="19"/>
+      <c r="F398" s="16"/>
+      <c r="G398" s="16"/>
       <c r="H398" s="17"/>
       <c r="I398" s="17"/>
       <c r="J398" s="18"/>
       <c r="K398" s="18"/>
     </row>
     <row r="399" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B399" s="19" t="s">
+      <c r="B399" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="C399" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D399" s="19" t="s">
+      <c r="C399" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D399" s="16" t="s">
         <v>1541</v>
       </c>
       <c r="E399" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F399" s="19" t="s">
+      <c r="F399" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="G399" s="19" t="s">
+      <c r="G399" s="16" t="s">
         <v>1542</v>
       </c>
       <c r="H399" s="17" t="s">
@@ -23131,64 +23145,64 @@
       </c>
     </row>
     <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B400" s="19"/>
-      <c r="C400" s="19"/>
-      <c r="D400" s="19"/>
+      <c r="B400" s="16"/>
+      <c r="C400" s="16"/>
+      <c r="D400" s="16"/>
       <c r="E400" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="F400" s="19"/>
-      <c r="G400" s="19"/>
+      <c r="F400" s="16"/>
+      <c r="G400" s="16"/>
       <c r="H400" s="17"/>
       <c r="I400" s="17"/>
       <c r="J400" s="18"/>
       <c r="K400" s="18"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B401" s="19"/>
-      <c r="C401" s="19"/>
-      <c r="D401" s="19"/>
+      <c r="B401" s="16"/>
+      <c r="C401" s="16"/>
+      <c r="D401" s="16"/>
       <c r="E401" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="F401" s="19"/>
-      <c r="G401" s="19"/>
+      <c r="F401" s="16"/>
+      <c r="G401" s="16"/>
       <c r="H401" s="17"/>
       <c r="I401" s="17"/>
       <c r="J401" s="18"/>
       <c r="K401" s="18"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B402" s="19"/>
-      <c r="C402" s="19"/>
-      <c r="D402" s="19"/>
+      <c r="B402" s="16"/>
+      <c r="C402" s="16"/>
+      <c r="D402" s="16"/>
       <c r="E402" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F402" s="19"/>
-      <c r="G402" s="19"/>
+      <c r="F402" s="16"/>
+      <c r="G402" s="16"/>
       <c r="H402" s="17"/>
       <c r="I402" s="17"/>
       <c r="J402" s="18"/>
       <c r="K402" s="18"/>
     </row>
     <row r="403" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B403" s="19" t="s">
+      <c r="B403" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="C403" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D403" s="19" t="s">
+      <c r="C403" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D403" s="16" t="s">
         <v>1545</v>
       </c>
       <c r="E403" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F403" s="19" t="s">
+      <c r="F403" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="G403" s="19" t="s">
+      <c r="G403" s="16" t="s">
         <v>1546</v>
       </c>
       <c r="H403" s="17" t="s">
@@ -23205,64 +23219,64 @@
       </c>
     </row>
     <row r="404" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B404" s="19"/>
-      <c r="C404" s="19"/>
-      <c r="D404" s="19"/>
+      <c r="B404" s="16"/>
+      <c r="C404" s="16"/>
+      <c r="D404" s="16"/>
       <c r="E404" s="6" t="s">
         <v>1548</v>
       </c>
-      <c r="F404" s="19"/>
-      <c r="G404" s="19"/>
+      <c r="F404" s="16"/>
+      <c r="G404" s="16"/>
       <c r="H404" s="17"/>
       <c r="I404" s="17"/>
       <c r="J404" s="18"/>
       <c r="K404" s="18"/>
     </row>
     <row r="405" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B405" s="19"/>
-      <c r="C405" s="19"/>
-      <c r="D405" s="19"/>
+      <c r="B405" s="16"/>
+      <c r="C405" s="16"/>
+      <c r="D405" s="16"/>
       <c r="E405" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="F405" s="19"/>
-      <c r="G405" s="19"/>
+      <c r="F405" s="16"/>
+      <c r="G405" s="16"/>
       <c r="H405" s="17"/>
       <c r="I405" s="17"/>
       <c r="J405" s="18"/>
       <c r="K405" s="18"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B406" s="19"/>
-      <c r="C406" s="19"/>
-      <c r="D406" s="19"/>
+      <c r="B406" s="16"/>
+      <c r="C406" s="16"/>
+      <c r="D406" s="16"/>
       <c r="E406" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F406" s="19"/>
-      <c r="G406" s="19"/>
+      <c r="F406" s="16"/>
+      <c r="G406" s="16"/>
       <c r="H406" s="17"/>
       <c r="I406" s="17"/>
       <c r="J406" s="18"/>
       <c r="K406" s="18"/>
     </row>
     <row r="407" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B407" s="19" t="s">
+      <c r="B407" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="C407" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D407" s="19" t="s">
+      <c r="C407" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D407" s="16" t="s">
         <v>1549</v>
       </c>
       <c r="E407" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F407" s="19" t="s">
+      <c r="F407" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="G407" s="19" t="s">
+      <c r="G407" s="16" t="s">
         <v>1550</v>
       </c>
       <c r="H407" s="17" t="s">
@@ -23279,42 +23293,42 @@
       </c>
     </row>
     <row r="408" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B408" s="19"/>
-      <c r="C408" s="19"/>
-      <c r="D408" s="19"/>
+      <c r="B408" s="16"/>
+      <c r="C408" s="16"/>
+      <c r="D408" s="16"/>
       <c r="E408" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="F408" s="19"/>
-      <c r="G408" s="19"/>
+      <c r="F408" s="16"/>
+      <c r="G408" s="16"/>
       <c r="H408" s="17"/>
       <c r="I408" s="17"/>
       <c r="J408" s="18"/>
       <c r="K408" s="18"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B409" s="19"/>
-      <c r="C409" s="19"/>
-      <c r="D409" s="19"/>
+      <c r="B409" s="16"/>
+      <c r="C409" s="16"/>
+      <c r="D409" s="16"/>
       <c r="E409" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="F409" s="19"/>
-      <c r="G409" s="19"/>
+      <c r="F409" s="16"/>
+      <c r="G409" s="16"/>
       <c r="H409" s="17"/>
       <c r="I409" s="17"/>
       <c r="J409" s="18"/>
       <c r="K409" s="18"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B410" s="19"/>
-      <c r="C410" s="19"/>
-      <c r="D410" s="19"/>
+      <c r="B410" s="16"/>
+      <c r="C410" s="16"/>
+      <c r="D410" s="16"/>
       <c r="E410" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F410" s="19"/>
-      <c r="G410" s="19"/>
+      <c r="F410" s="16"/>
+      <c r="G410" s="16"/>
       <c r="H410" s="17"/>
       <c r="I410" s="17"/>
       <c r="J410" s="18"/>
@@ -34677,44 +34691,6 @@
   </sheetData>
   <autoFilter ref="A1:K730" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="54">
-    <mergeCell ref="B407:B410"/>
-    <mergeCell ref="C407:C410"/>
-    <mergeCell ref="D407:D410"/>
-    <mergeCell ref="F407:F410"/>
-    <mergeCell ref="G407:G410"/>
-    <mergeCell ref="B403:B406"/>
-    <mergeCell ref="C403:C406"/>
-    <mergeCell ref="D403:D406"/>
-    <mergeCell ref="F403:F406"/>
-    <mergeCell ref="G403:G406"/>
-    <mergeCell ref="H399:H402"/>
-    <mergeCell ref="I399:I402"/>
-    <mergeCell ref="J399:J402"/>
-    <mergeCell ref="K399:K402"/>
-    <mergeCell ref="H407:H410"/>
-    <mergeCell ref="I407:I410"/>
-    <mergeCell ref="H403:H406"/>
-    <mergeCell ref="J407:J410"/>
-    <mergeCell ref="K407:K410"/>
-    <mergeCell ref="I403:I406"/>
-    <mergeCell ref="J403:J406"/>
-    <mergeCell ref="K403:K406"/>
-    <mergeCell ref="B399:B402"/>
-    <mergeCell ref="C399:C402"/>
-    <mergeCell ref="D399:D402"/>
-    <mergeCell ref="F399:F402"/>
-    <mergeCell ref="G399:G402"/>
-    <mergeCell ref="J391:J394"/>
-    <mergeCell ref="K391:K394"/>
-    <mergeCell ref="B395:B398"/>
-    <mergeCell ref="C395:C398"/>
-    <mergeCell ref="D395:D398"/>
-    <mergeCell ref="F395:F398"/>
-    <mergeCell ref="G395:G398"/>
-    <mergeCell ref="H395:H398"/>
-    <mergeCell ref="I395:I398"/>
-    <mergeCell ref="J395:J398"/>
-    <mergeCell ref="K395:K398"/>
     <mergeCell ref="I387:I390"/>
     <mergeCell ref="J387:J390"/>
     <mergeCell ref="K387:K390"/>
@@ -34731,6 +34707,44 @@
     <mergeCell ref="F387:F390"/>
     <mergeCell ref="G387:G390"/>
     <mergeCell ref="H387:H390"/>
+    <mergeCell ref="J391:J394"/>
+    <mergeCell ref="K391:K394"/>
+    <mergeCell ref="B395:B398"/>
+    <mergeCell ref="C395:C398"/>
+    <mergeCell ref="D395:D398"/>
+    <mergeCell ref="F395:F398"/>
+    <mergeCell ref="G395:G398"/>
+    <mergeCell ref="H395:H398"/>
+    <mergeCell ref="I395:I398"/>
+    <mergeCell ref="J395:J398"/>
+    <mergeCell ref="K395:K398"/>
+    <mergeCell ref="B399:B402"/>
+    <mergeCell ref="C399:C402"/>
+    <mergeCell ref="D399:D402"/>
+    <mergeCell ref="F399:F402"/>
+    <mergeCell ref="G399:G402"/>
+    <mergeCell ref="H399:H402"/>
+    <mergeCell ref="I399:I402"/>
+    <mergeCell ref="J399:J402"/>
+    <mergeCell ref="K399:K402"/>
+    <mergeCell ref="H407:H410"/>
+    <mergeCell ref="I407:I410"/>
+    <mergeCell ref="H403:H406"/>
+    <mergeCell ref="J407:J410"/>
+    <mergeCell ref="K407:K410"/>
+    <mergeCell ref="I403:I406"/>
+    <mergeCell ref="J403:J406"/>
+    <mergeCell ref="K403:K406"/>
+    <mergeCell ref="B403:B406"/>
+    <mergeCell ref="C403:C406"/>
+    <mergeCell ref="D403:D406"/>
+    <mergeCell ref="F403:F406"/>
+    <mergeCell ref="G403:G406"/>
+    <mergeCell ref="B407:B410"/>
+    <mergeCell ref="C407:C410"/>
+    <mergeCell ref="D407:D410"/>
+    <mergeCell ref="F407:F410"/>
+    <mergeCell ref="G407:G410"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34740,10 +34754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B988044-F82C-454C-8772-93364BF72EDC}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34761,7 +34775,7 @@
     <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -34796,7 +34810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="s">
@@ -34819,13 +34833,16 @@
         <v>19</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>2925</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>2926</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15" t="s">
@@ -34848,38 +34865,48 @@
         <v>19</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>2925</v>
+        <v>2951</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>2927</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>2926</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15" t="s">
+        <v>2927</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>2928</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>2929</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>2930</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>2955</v>
+        <v>2950</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="J4" s="15" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>2952</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
@@ -34887,20 +34914,31 @@
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
+        <v>2931</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>2928</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>2932</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>2929</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>2933</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="H5" s="15" t="s">
+        <v>2950</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>2953</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="s">
@@ -34908,20 +34946,31 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>2935</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>2936</v>
-      </c>
       <c r="G6" s="15" t="s">
-        <v>2937</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>2957</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>2950</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>2954</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
@@ -34929,20 +34978,31 @@
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>2940</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>2956</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>2950</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>2955</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
@@ -34950,20 +35010,29 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2942</v>
-      </c>
-      <c r="H8" s="15"/>
+        <v>2958</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>2950</v>
+      </c>
       <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="J8" s="15" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>2959</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
@@ -34971,20 +35040,29 @@
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>2943</v>
+        <v>2938</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>2944</v>
-      </c>
-      <c r="H9" s="15"/>
+        <v>2939</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>2950</v>
+      </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="J9" s="15" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>2960</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
@@ -34992,20 +35070,23 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>2945</v>
+        <v>2940</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>2943</v>
+        <v>2938</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>2944</v>
+        <v>2939</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K10" s="15"/>
+      <c r="L10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
@@ -35013,20 +35094,23 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>2946</v>
+        <v>2941</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>2947</v>
+        <v>2942</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K11" s="15"/>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
@@ -35034,20 +35118,23 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>2948</v>
+        <v>2943</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>2946</v>
+        <v>2941</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2949</v>
+        <v>2944</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K12" s="15"/>
+      <c r="L12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
@@ -35058,17 +35145,20 @@
         <v>2920</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>2950</v>
+        <v>2945</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2951</v>
+        <v>2946</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="K13" s="15"/>
+      <c r="L13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
@@ -35076,32 +35166,23 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>2952</v>
+        <v>2947</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>2953</v>
+        <v>2948</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>2954</v>
+        <v>2949</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="15"/>
+      <c r="L14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -35624,12 +35705,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0277092-f208-41fd-9f2b-ef47bd2126a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="23773914-4b94-40ee-8997-01f035a39c46" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35870,20 +35953,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0277092-f208-41fd-9f2b-ef47bd2126a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="23773914-4b94-40ee-8997-01f035a39c46" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D246E6F4-4C47-49FE-984C-FDBFC4A2FFEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D6E3D79-480A-4B7C-8B61-D2B9855C3317}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="23773914-4b94-40ee-8997-01f035a39c46"/>
+    <ds:schemaRef ds:uri="e0277092-f208-41fd-9f2b-ef47bd2126a3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35908,18 +35998,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D6E3D79-480A-4B7C-8B61-D2B9855C3317}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D246E6F4-4C47-49FE-984C-FDBFC4A2FFEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="23773914-4b94-40ee-8997-01f035a39c46"/>
-    <ds:schemaRef ds:uri="e0277092-f208-41fd-9f2b-ef47bd2126a3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Scipper - Tests.xlsx
+++ b/Scipper - Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateusz.wysocki\Documents\AL\IMW_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EFBF0E-FE10-465C-AF98-859E5779BAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33ECB92-A008-49A4-B38A-F62D3EAF37D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7937" uniqueCount="2961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7947" uniqueCount="2962">
   <si>
     <t>Area</t>
   </si>
@@ -8882,15 +8882,9 @@
     <t>New Customer is created.</t>
   </si>
   <si>
-    <t>Customer is created. Customer is allocated to discount group.</t>
-  </si>
-  <si>
     <t>Value of Auto Assigned Cust. Disc. Group is true. Status is "Open".</t>
   </si>
   <si>
-    <t>Customer is created. Customer in not allocated to discount group.</t>
-  </si>
-  <si>
     <t>Manually allocat customer to discount group.</t>
   </si>
   <si>
@@ -8936,7 +8930,16 @@
     <t>CustomersAutoAssignedToDiscGroupHistory</t>
   </si>
   <si>
-    <t>ErrorCustomerAddedToSalesDocument</t>
+    <t>ErrorCustomerWithoutGroupAddedToSalesDocument</t>
+  </si>
+  <si>
+    <t>ErrorCustomerInvalidAssignAddedToSalesDocument</t>
+  </si>
+  <si>
+    <t>Customer is not allocated to discount group.</t>
+  </si>
+  <si>
+    <t>CustomerIsAllocatedDiscGroupAfterInit</t>
   </si>
 </sst>
 </file>
@@ -9107,11 +9110,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22891,448 +22894,448 @@
       </c>
     </row>
     <row r="387" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B387" s="16" t="s">
+      <c r="B387" s="18" t="s">
         <v>1525</v>
       </c>
-      <c r="C387" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D387" s="16" t="s">
+      <c r="C387" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" s="18" t="s">
         <v>1526</v>
       </c>
       <c r="E387" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F387" s="16" t="s">
+      <c r="F387" s="18" t="s">
         <v>1528</v>
       </c>
-      <c r="G387" s="16" t="s">
+      <c r="G387" s="18" t="s">
         <v>1529</v>
       </c>
-      <c r="H387" s="17" t="s">
+      <c r="H387" s="16" t="s">
         <v>1530</v>
       </c>
-      <c r="I387" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J387" s="18" t="s">
+      <c r="I387" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J387" s="17" t="s">
         <v>1244</v>
       </c>
-      <c r="K387" s="18" t="s">
+      <c r="K387" s="17" t="s">
         <v>1531</v>
       </c>
     </row>
     <row r="388" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B388" s="16"/>
-      <c r="C388" s="16"/>
-      <c r="D388" s="16"/>
+      <c r="B388" s="18"/>
+      <c r="C388" s="18"/>
+      <c r="D388" s="18"/>
       <c r="E388" s="6" t="s">
         <v>1532</v>
       </c>
-      <c r="F388" s="16"/>
-      <c r="G388" s="16"/>
-      <c r="H388" s="17"/>
-      <c r="I388" s="17"/>
-      <c r="J388" s="18"/>
-      <c r="K388" s="18"/>
+      <c r="F388" s="18"/>
+      <c r="G388" s="18"/>
+      <c r="H388" s="16"/>
+      <c r="I388" s="16"/>
+      <c r="J388" s="17"/>
+      <c r="K388" s="17"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B389" s="16"/>
-      <c r="C389" s="16"/>
-      <c r="D389" s="16"/>
+      <c r="B389" s="18"/>
+      <c r="C389" s="18"/>
+      <c r="D389" s="18"/>
       <c r="E389" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="F389" s="16"/>
-      <c r="G389" s="16"/>
-      <c r="H389" s="17"/>
-      <c r="I389" s="17"/>
-      <c r="J389" s="18"/>
-      <c r="K389" s="18"/>
+      <c r="F389" s="18"/>
+      <c r="G389" s="18"/>
+      <c r="H389" s="16"/>
+      <c r="I389" s="16"/>
+      <c r="J389" s="17"/>
+      <c r="K389" s="17"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B390" s="16"/>
-      <c r="C390" s="16"/>
-      <c r="D390" s="16"/>
+      <c r="B390" s="18"/>
+      <c r="C390" s="18"/>
+      <c r="D390" s="18"/>
       <c r="E390" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F390" s="16"/>
-      <c r="G390" s="16"/>
-      <c r="H390" s="17"/>
-      <c r="I390" s="17"/>
-      <c r="J390" s="18"/>
-      <c r="K390" s="18"/>
+      <c r="F390" s="18"/>
+      <c r="G390" s="18"/>
+      <c r="H390" s="16"/>
+      <c r="I390" s="16"/>
+      <c r="J390" s="17"/>
+      <c r="K390" s="17"/>
     </row>
     <row r="391" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B391" s="16" t="s">
+      <c r="B391" s="18" t="s">
         <v>1525</v>
       </c>
-      <c r="C391" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D391" s="16" t="s">
+      <c r="C391" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D391" s="18" t="s">
         <v>1534</v>
       </c>
       <c r="E391" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F391" s="16" t="s">
+      <c r="F391" s="18" t="s">
         <v>1528</v>
       </c>
-      <c r="G391" s="16" t="s">
+      <c r="G391" s="18" t="s">
         <v>1535</v>
       </c>
-      <c r="H391" s="17" t="s">
+      <c r="H391" s="16" t="s">
         <v>1530</v>
       </c>
-      <c r="I391" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J391" s="18" t="s">
+      <c r="I391" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J391" s="17" t="s">
         <v>1244</v>
       </c>
-      <c r="K391" s="18" t="s">
+      <c r="K391" s="17" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B392" s="16"/>
-      <c r="C392" s="16"/>
-      <c r="D392" s="16"/>
+      <c r="B392" s="18"/>
+      <c r="C392" s="18"/>
+      <c r="D392" s="18"/>
       <c r="E392" s="6" t="s">
         <v>1532</v>
       </c>
-      <c r="F392" s="16"/>
-      <c r="G392" s="16"/>
-      <c r="H392" s="17"/>
-      <c r="I392" s="17"/>
-      <c r="J392" s="18"/>
-      <c r="K392" s="18"/>
+      <c r="F392" s="18"/>
+      <c r="G392" s="18"/>
+      <c r="H392" s="16"/>
+      <c r="I392" s="16"/>
+      <c r="J392" s="17"/>
+      <c r="K392" s="17"/>
     </row>
     <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B393" s="16"/>
-      <c r="C393" s="16"/>
-      <c r="D393" s="16"/>
+      <c r="B393" s="18"/>
+      <c r="C393" s="18"/>
+      <c r="D393" s="18"/>
       <c r="E393" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="F393" s="16"/>
-      <c r="G393" s="16"/>
-      <c r="H393" s="17"/>
-      <c r="I393" s="17"/>
-      <c r="J393" s="18"/>
-      <c r="K393" s="18"/>
+      <c r="F393" s="18"/>
+      <c r="G393" s="18"/>
+      <c r="H393" s="16"/>
+      <c r="I393" s="16"/>
+      <c r="J393" s="17"/>
+      <c r="K393" s="17"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B394" s="16"/>
-      <c r="C394" s="16"/>
-      <c r="D394" s="16"/>
+      <c r="B394" s="18"/>
+      <c r="C394" s="18"/>
+      <c r="D394" s="18"/>
       <c r="E394" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F394" s="16"/>
-      <c r="G394" s="16"/>
-      <c r="H394" s="17"/>
-      <c r="I394" s="17"/>
-      <c r="J394" s="18"/>
-      <c r="K394" s="18"/>
+      <c r="F394" s="18"/>
+      <c r="G394" s="18"/>
+      <c r="H394" s="16"/>
+      <c r="I394" s="16"/>
+      <c r="J394" s="17"/>
+      <c r="K394" s="17"/>
     </row>
     <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B395" s="16" t="s">
+      <c r="B395" s="18" t="s">
         <v>1525</v>
       </c>
-      <c r="C395" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D395" s="16" t="s">
+      <c r="C395" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D395" s="18" t="s">
         <v>1538</v>
       </c>
       <c r="E395" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F395" s="16" t="s">
+      <c r="F395" s="18" t="s">
         <v>1528</v>
       </c>
-      <c r="G395" s="16" t="s">
+      <c r="G395" s="18" t="s">
         <v>1539</v>
       </c>
-      <c r="H395" s="17" t="s">
+      <c r="H395" s="16" t="s">
         <v>1530</v>
       </c>
-      <c r="I395" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J395" s="18" t="s">
+      <c r="I395" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J395" s="17" t="s">
         <v>1244</v>
       </c>
-      <c r="K395" s="18" t="s">
+      <c r="K395" s="17" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="396" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B396" s="16"/>
-      <c r="C396" s="16"/>
-      <c r="D396" s="16"/>
+      <c r="B396" s="18"/>
+      <c r="C396" s="18"/>
+      <c r="D396" s="18"/>
       <c r="E396" s="6" t="s">
         <v>1532</v>
       </c>
-      <c r="F396" s="16"/>
-      <c r="G396" s="16"/>
-      <c r="H396" s="17"/>
-      <c r="I396" s="17"/>
-      <c r="J396" s="18"/>
-      <c r="K396" s="18"/>
+      <c r="F396" s="18"/>
+      <c r="G396" s="18"/>
+      <c r="H396" s="16"/>
+      <c r="I396" s="16"/>
+      <c r="J396" s="17"/>
+      <c r="K396" s="17"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B397" s="16"/>
-      <c r="C397" s="16"/>
-      <c r="D397" s="16"/>
+      <c r="B397" s="18"/>
+      <c r="C397" s="18"/>
+      <c r="D397" s="18"/>
       <c r="E397" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="F397" s="16"/>
-      <c r="G397" s="16"/>
-      <c r="H397" s="17"/>
-      <c r="I397" s="17"/>
-      <c r="J397" s="18"/>
-      <c r="K397" s="18"/>
+      <c r="F397" s="18"/>
+      <c r="G397" s="18"/>
+      <c r="H397" s="16"/>
+      <c r="I397" s="16"/>
+      <c r="J397" s="17"/>
+      <c r="K397" s="17"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B398" s="16"/>
-      <c r="C398" s="16"/>
-      <c r="D398" s="16"/>
+      <c r="B398" s="18"/>
+      <c r="C398" s="18"/>
+      <c r="D398" s="18"/>
       <c r="E398" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F398" s="16"/>
-      <c r="G398" s="16"/>
-      <c r="H398" s="17"/>
-      <c r="I398" s="17"/>
-      <c r="J398" s="18"/>
-      <c r="K398" s="18"/>
+      <c r="F398" s="18"/>
+      <c r="G398" s="18"/>
+      <c r="H398" s="16"/>
+      <c r="I398" s="16"/>
+      <c r="J398" s="17"/>
+      <c r="K398" s="17"/>
     </row>
     <row r="399" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B399" s="16" t="s">
+      <c r="B399" s="18" t="s">
         <v>1525</v>
       </c>
-      <c r="C399" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D399" s="16" t="s">
+      <c r="C399" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D399" s="18" t="s">
         <v>1541</v>
       </c>
       <c r="E399" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F399" s="16" t="s">
+      <c r="F399" s="18" t="s">
         <v>1528</v>
       </c>
-      <c r="G399" s="16" t="s">
+      <c r="G399" s="18" t="s">
         <v>1542</v>
       </c>
-      <c r="H399" s="17" t="s">
+      <c r="H399" s="16" t="s">
         <v>1530</v>
       </c>
-      <c r="I399" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J399" s="18" t="s">
+      <c r="I399" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J399" s="17" t="s">
         <v>1244</v>
       </c>
-      <c r="K399" s="18" t="s">
+      <c r="K399" s="17" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B400" s="16"/>
-      <c r="C400" s="16"/>
-      <c r="D400" s="16"/>
+      <c r="B400" s="18"/>
+      <c r="C400" s="18"/>
+      <c r="D400" s="18"/>
       <c r="E400" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="F400" s="16"/>
-      <c r="G400" s="16"/>
-      <c r="H400" s="17"/>
-      <c r="I400" s="17"/>
-      <c r="J400" s="18"/>
-      <c r="K400" s="18"/>
+      <c r="F400" s="18"/>
+      <c r="G400" s="18"/>
+      <c r="H400" s="16"/>
+      <c r="I400" s="16"/>
+      <c r="J400" s="17"/>
+      <c r="K400" s="17"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B401" s="16"/>
-      <c r="C401" s="16"/>
-      <c r="D401" s="16"/>
+      <c r="B401" s="18"/>
+      <c r="C401" s="18"/>
+      <c r="D401" s="18"/>
       <c r="E401" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="F401" s="16"/>
-      <c r="G401" s="16"/>
-      <c r="H401" s="17"/>
-      <c r="I401" s="17"/>
-      <c r="J401" s="18"/>
-      <c r="K401" s="18"/>
+      <c r="F401" s="18"/>
+      <c r="G401" s="18"/>
+      <c r="H401" s="16"/>
+      <c r="I401" s="16"/>
+      <c r="J401" s="17"/>
+      <c r="K401" s="17"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B402" s="16"/>
-      <c r="C402" s="16"/>
-      <c r="D402" s="16"/>
+      <c r="B402" s="18"/>
+      <c r="C402" s="18"/>
+      <c r="D402" s="18"/>
       <c r="E402" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F402" s="16"/>
-      <c r="G402" s="16"/>
-      <c r="H402" s="17"/>
-      <c r="I402" s="17"/>
-      <c r="J402" s="18"/>
-      <c r="K402" s="18"/>
+      <c r="F402" s="18"/>
+      <c r="G402" s="18"/>
+      <c r="H402" s="16"/>
+      <c r="I402" s="16"/>
+      <c r="J402" s="17"/>
+      <c r="K402" s="17"/>
     </row>
     <row r="403" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B403" s="16" t="s">
+      <c r="B403" s="18" t="s">
         <v>1525</v>
       </c>
-      <c r="C403" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D403" s="16" t="s">
+      <c r="C403" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D403" s="18" t="s">
         <v>1545</v>
       </c>
       <c r="E403" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F403" s="16" t="s">
+      <c r="F403" s="18" t="s">
         <v>1528</v>
       </c>
-      <c r="G403" s="16" t="s">
+      <c r="G403" s="18" t="s">
         <v>1546</v>
       </c>
-      <c r="H403" s="17" t="s">
+      <c r="H403" s="16" t="s">
         <v>1530</v>
       </c>
-      <c r="I403" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J403" s="18" t="s">
+      <c r="I403" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J403" s="17" t="s">
         <v>1244</v>
       </c>
-      <c r="K403" s="18" t="s">
+      <c r="K403" s="17" t="s">
         <v>1547</v>
       </c>
     </row>
     <row r="404" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B404" s="16"/>
-      <c r="C404" s="16"/>
-      <c r="D404" s="16"/>
+      <c r="B404" s="18"/>
+      <c r="C404" s="18"/>
+      <c r="D404" s="18"/>
       <c r="E404" s="6" t="s">
         <v>1548</v>
       </c>
-      <c r="F404" s="16"/>
-      <c r="G404" s="16"/>
-      <c r="H404" s="17"/>
-      <c r="I404" s="17"/>
-      <c r="J404" s="18"/>
-      <c r="K404" s="18"/>
+      <c r="F404" s="18"/>
+      <c r="G404" s="18"/>
+      <c r="H404" s="16"/>
+      <c r="I404" s="16"/>
+      <c r="J404" s="17"/>
+      <c r="K404" s="17"/>
     </row>
     <row r="405" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B405" s="16"/>
-      <c r="C405" s="16"/>
-      <c r="D405" s="16"/>
+      <c r="B405" s="18"/>
+      <c r="C405" s="18"/>
+      <c r="D405" s="18"/>
       <c r="E405" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="F405" s="16"/>
-      <c r="G405" s="16"/>
-      <c r="H405" s="17"/>
-      <c r="I405" s="17"/>
-      <c r="J405" s="18"/>
-      <c r="K405" s="18"/>
+      <c r="F405" s="18"/>
+      <c r="G405" s="18"/>
+      <c r="H405" s="16"/>
+      <c r="I405" s="16"/>
+      <c r="J405" s="17"/>
+      <c r="K405" s="17"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B406" s="16"/>
-      <c r="C406" s="16"/>
-      <c r="D406" s="16"/>
+      <c r="B406" s="18"/>
+      <c r="C406" s="18"/>
+      <c r="D406" s="18"/>
       <c r="E406" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F406" s="16"/>
-      <c r="G406" s="16"/>
-      <c r="H406" s="17"/>
-      <c r="I406" s="17"/>
-      <c r="J406" s="18"/>
-      <c r="K406" s="18"/>
+      <c r="F406" s="18"/>
+      <c r="G406" s="18"/>
+      <c r="H406" s="16"/>
+      <c r="I406" s="16"/>
+      <c r="J406" s="17"/>
+      <c r="K406" s="17"/>
     </row>
     <row r="407" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B407" s="16" t="s">
+      <c r="B407" s="18" t="s">
         <v>1525</v>
       </c>
-      <c r="C407" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D407" s="16" t="s">
+      <c r="C407" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D407" s="18" t="s">
         <v>1549</v>
       </c>
       <c r="E407" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F407" s="16" t="s">
+      <c r="F407" s="18" t="s">
         <v>1528</v>
       </c>
-      <c r="G407" s="16" t="s">
+      <c r="G407" s="18" t="s">
         <v>1550</v>
       </c>
-      <c r="H407" s="17" t="s">
+      <c r="H407" s="16" t="s">
         <v>1530</v>
       </c>
-      <c r="I407" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J407" s="18" t="s">
+      <c r="I407" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J407" s="17" t="s">
         <v>1244</v>
       </c>
-      <c r="K407" s="18" t="s">
+      <c r="K407" s="17" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="408" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B408" s="16"/>
-      <c r="C408" s="16"/>
-      <c r="D408" s="16"/>
+      <c r="B408" s="18"/>
+      <c r="C408" s="18"/>
+      <c r="D408" s="18"/>
       <c r="E408" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="F408" s="16"/>
-      <c r="G408" s="16"/>
-      <c r="H408" s="17"/>
-      <c r="I408" s="17"/>
-      <c r="J408" s="18"/>
-      <c r="K408" s="18"/>
+      <c r="F408" s="18"/>
+      <c r="G408" s="18"/>
+      <c r="H408" s="16"/>
+      <c r="I408" s="16"/>
+      <c r="J408" s="17"/>
+      <c r="K408" s="17"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B409" s="16"/>
-      <c r="C409" s="16"/>
-      <c r="D409" s="16"/>
+      <c r="B409" s="18"/>
+      <c r="C409" s="18"/>
+      <c r="D409" s="18"/>
       <c r="E409" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="F409" s="16"/>
-      <c r="G409" s="16"/>
-      <c r="H409" s="17"/>
-      <c r="I409" s="17"/>
-      <c r="J409" s="18"/>
-      <c r="K409" s="18"/>
+      <c r="F409" s="18"/>
+      <c r="G409" s="18"/>
+      <c r="H409" s="16"/>
+      <c r="I409" s="16"/>
+      <c r="J409" s="17"/>
+      <c r="K409" s="17"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B410" s="16"/>
-      <c r="C410" s="16"/>
-      <c r="D410" s="16"/>
+      <c r="B410" s="18"/>
+      <c r="C410" s="18"/>
+      <c r="D410" s="18"/>
       <c r="E410" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F410" s="16"/>
-      <c r="G410" s="16"/>
-      <c r="H410" s="17"/>
-      <c r="I410" s="17"/>
-      <c r="J410" s="18"/>
-      <c r="K410" s="18"/>
+      <c r="F410" s="18"/>
+      <c r="G410" s="18"/>
+      <c r="H410" s="16"/>
+      <c r="I410" s="16"/>
+      <c r="J410" s="17"/>
+      <c r="K410" s="17"/>
     </row>
     <row r="411" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
@@ -34691,6 +34694,44 @@
   </sheetData>
   <autoFilter ref="A1:K730" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="54">
+    <mergeCell ref="B407:B410"/>
+    <mergeCell ref="C407:C410"/>
+    <mergeCell ref="D407:D410"/>
+    <mergeCell ref="F407:F410"/>
+    <mergeCell ref="G407:G410"/>
+    <mergeCell ref="B403:B406"/>
+    <mergeCell ref="C403:C406"/>
+    <mergeCell ref="D403:D406"/>
+    <mergeCell ref="F403:F406"/>
+    <mergeCell ref="G403:G406"/>
+    <mergeCell ref="H399:H402"/>
+    <mergeCell ref="I399:I402"/>
+    <mergeCell ref="J399:J402"/>
+    <mergeCell ref="K399:K402"/>
+    <mergeCell ref="H407:H410"/>
+    <mergeCell ref="I407:I410"/>
+    <mergeCell ref="H403:H406"/>
+    <mergeCell ref="J407:J410"/>
+    <mergeCell ref="K407:K410"/>
+    <mergeCell ref="I403:I406"/>
+    <mergeCell ref="J403:J406"/>
+    <mergeCell ref="K403:K406"/>
+    <mergeCell ref="B399:B402"/>
+    <mergeCell ref="C399:C402"/>
+    <mergeCell ref="D399:D402"/>
+    <mergeCell ref="F399:F402"/>
+    <mergeCell ref="G399:G402"/>
+    <mergeCell ref="J391:J394"/>
+    <mergeCell ref="K391:K394"/>
+    <mergeCell ref="B395:B398"/>
+    <mergeCell ref="C395:C398"/>
+    <mergeCell ref="D395:D398"/>
+    <mergeCell ref="F395:F398"/>
+    <mergeCell ref="G395:G398"/>
+    <mergeCell ref="H395:H398"/>
+    <mergeCell ref="I395:I398"/>
+    <mergeCell ref="J395:J398"/>
+    <mergeCell ref="K395:K398"/>
     <mergeCell ref="I387:I390"/>
     <mergeCell ref="J387:J390"/>
     <mergeCell ref="K387:K390"/>
@@ -34707,44 +34748,6 @@
     <mergeCell ref="F387:F390"/>
     <mergeCell ref="G387:G390"/>
     <mergeCell ref="H387:H390"/>
-    <mergeCell ref="J391:J394"/>
-    <mergeCell ref="K391:K394"/>
-    <mergeCell ref="B395:B398"/>
-    <mergeCell ref="C395:C398"/>
-    <mergeCell ref="D395:D398"/>
-    <mergeCell ref="F395:F398"/>
-    <mergeCell ref="G395:G398"/>
-    <mergeCell ref="H395:H398"/>
-    <mergeCell ref="I395:I398"/>
-    <mergeCell ref="J395:J398"/>
-    <mergeCell ref="K395:K398"/>
-    <mergeCell ref="B399:B402"/>
-    <mergeCell ref="C399:C402"/>
-    <mergeCell ref="D399:D402"/>
-    <mergeCell ref="F399:F402"/>
-    <mergeCell ref="G399:G402"/>
-    <mergeCell ref="H399:H402"/>
-    <mergeCell ref="I399:I402"/>
-    <mergeCell ref="J399:J402"/>
-    <mergeCell ref="K399:K402"/>
-    <mergeCell ref="H407:H410"/>
-    <mergeCell ref="I407:I410"/>
-    <mergeCell ref="H403:H406"/>
-    <mergeCell ref="J407:J410"/>
-    <mergeCell ref="K407:K410"/>
-    <mergeCell ref="I403:I406"/>
-    <mergeCell ref="J403:J406"/>
-    <mergeCell ref="K403:K406"/>
-    <mergeCell ref="B403:B406"/>
-    <mergeCell ref="C403:C406"/>
-    <mergeCell ref="D403:D406"/>
-    <mergeCell ref="F403:F406"/>
-    <mergeCell ref="G403:G406"/>
-    <mergeCell ref="B407:B410"/>
-    <mergeCell ref="C407:C410"/>
-    <mergeCell ref="D407:D410"/>
-    <mergeCell ref="F407:F410"/>
-    <mergeCell ref="G407:G410"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34756,8 +34759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B988044-F82C-454C-8772-93364BF72EDC}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34833,7 +34836,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>2925</v>
@@ -34865,7 +34868,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>2926</v>
@@ -34891,16 +34894,16 @@
         <v>2929</v>
       </c>
       <c r="H4" s="15" t="s">
+        <v>2948</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>2949</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>2950</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>2951</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>2952</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -34923,16 +34926,16 @@
         <v>2932</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="15" t="s">
+        <v>2949</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>2951</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>2953</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -34952,19 +34955,19 @@
         <v>2935</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -34984,19 +34987,19 @@
         <v>2935</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -35016,17 +35019,19 @@
         <v>2937</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>2950</v>
-      </c>
-      <c r="I8" s="15"/>
+        <v>2948</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="J8" s="15" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -35049,14 +35054,16 @@
         <v>2939</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>2950</v>
-      </c>
-      <c r="I9" s="15"/>
+        <v>2948</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="J9" s="15" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="L9">
         <v>8</v>
@@ -35078,10 +35085,18 @@
       <c r="G10" s="15" t="s">
         <v>2939</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>2948</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>2949</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>2959</v>
+      </c>
       <c r="L10">
         <v>9</v>
       </c>
@@ -35100,17 +35115,25 @@
         <v>2941</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>2942</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+        <v>2955</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>2948</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>2949</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>2961</v>
+      </c>
       <c r="L11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
@@ -35118,13 +35141,13 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>2941</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>2944</v>
+        <v>2960</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -35145,10 +35168,10 @@
         <v>2920</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -35166,13 +35189,13 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>2946</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>2947</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>2948</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>2949</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -35705,14 +35728,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0277092-f208-41fd-9f2b-ef47bd2126a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="23773914-4b94-40ee-8997-01f035a39c46" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35953,27 +35974,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0277092-f208-41fd-9f2b-ef47bd2126a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="23773914-4b94-40ee-8997-01f035a39c46" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D6E3D79-480A-4B7C-8B61-D2B9855C3317}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D246E6F4-4C47-49FE-984C-FDBFC4A2FFEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="23773914-4b94-40ee-8997-01f035a39c46"/>
-    <ds:schemaRef ds:uri="e0277092-f208-41fd-9f2b-ef47bd2126a3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35998,9 +36012,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D246E6F4-4C47-49FE-984C-FDBFC4A2FFEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D6E3D79-480A-4B7C-8B61-D2B9855C3317}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="23773914-4b94-40ee-8997-01f035a39c46"/>
+    <ds:schemaRef ds:uri="e0277092-f208-41fd-9f2b-ef47bd2126a3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Scipper - Tests.xlsx
+++ b/Scipper - Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateusz.wysocki\Documents\AL\IMW_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33ECB92-A008-49A4-B38A-F62D3EAF37D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E142B406-3952-40CB-89B4-FCD3979348FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scipper GT" sheetId="1" r:id="rId1"/>
@@ -9110,11 +9110,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9486,23 +9486,23 @@
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.42578125" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.44140625" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>62</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>62</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>62</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>62</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>62</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>62</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>62</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>62</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>62</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>62</v>
       </c>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="N91"/>
     </row>
-    <row r="92" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>62</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>62</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>62</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>62</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>62</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>62</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>62</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>62</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>62</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>395</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>395</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>395</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>395</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>395</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>395</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>395</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>395</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>395</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>395</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>62</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>62</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>62</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>62</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>62</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>62</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>62</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>62</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>62</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>62</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>62</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>62</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>62</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>62</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>62</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>395</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>395</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>395</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>395</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>62</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>62</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>506</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>506</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>506</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>506</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>506</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>506</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>506</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>506</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>506</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>506</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>506</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>506</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>506</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>506</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>506</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>506</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>547</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>547</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>547</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>547</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>547</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>547</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>547</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>547</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>547</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>62</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>62</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>62</v>
       </c>
@@ -15103,7 +15103,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>582</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>582</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>547</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>547</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>547</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>547</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>547</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>547</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>618</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>626</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>626</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>626</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>626</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>582</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>582</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>582</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>582</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>582</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>582</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>582</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>582</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>62</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>506</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>506</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>547</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>547</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>547</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>62</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>547</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>62</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>547</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>618</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>618</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>618</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>547</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>547</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>547</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>547</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>547</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>506</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>506</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>506</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>506</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>506</v>
       </c>
@@ -16631,7 +16631,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>506</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>506</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>506</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>506</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>506</v>
       </c>
@@ -16806,7 +16806,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>618</v>
       </c>
@@ -16841,7 +16841,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>618</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>618</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>618</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>618</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>618</v>
       </c>
@@ -17016,7 +17016,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>618</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>618</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>789</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>789</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>799</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>799</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>799</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>799</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>62</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>62</v>
       </c>
@@ -17366,7 +17366,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>62</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>62</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>547</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>547</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>547</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>547</v>
       </c>
@@ -17576,7 +17576,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>547</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>547</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>547</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>547</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>618</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>618</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>618</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>618</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>618</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>618</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>582</v>
       </c>
@@ -17961,7 +17961,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>582</v>
       </c>
@@ -17996,7 +17996,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>582</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>62</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>62</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>62</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>62</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>62</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>62</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>582</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>582</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>618</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>618</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>937</v>
       </c>
@@ -18416,7 +18416,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>937</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>937</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>937</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>937</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>937</v>
       </c>
@@ -18591,7 +18591,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>937</v>
       </c>
@@ -18626,7 +18626,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>937</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>937</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>582</v>
       </c>
@@ -18731,7 +18731,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>582</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>582</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>582</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>582</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>582</v>
       </c>
@@ -18906,7 +18906,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>618</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>618</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>62</v>
       </c>
@@ -19011,7 +19011,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>62</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>62</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>62</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>62</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>62</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>582</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>62</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>937</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>937</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>937</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>937</v>
       </c>
@@ -19396,7 +19396,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>937</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>62</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>62</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>62</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>1091</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>1091</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>937</v>
       </c>
@@ -19641,7 +19641,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>937</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>1114</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="293" spans="1:11" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A293" s="11" t="s">
         <v>789</v>
       </c>
@@ -19746,7 +19746,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="294" spans="1:11" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A294" s="11" t="s">
         <v>789</v>
       </c>
@@ -19781,7 +19781,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>1131</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>1131</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>1142</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>1142</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>1131</v>
       </c>
@@ -19956,7 +19956,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>1131</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>1131</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>1131</v>
       </c>
@@ -20061,7 +20061,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>1168</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>1168</v>
       </c>
@@ -20131,7 +20131,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>1168</v>
       </c>
@@ -20166,7 +20166,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>1168</v>
       </c>
@@ -20201,7 +20201,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>1168</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>62</v>
       </c>
@@ -20271,7 +20271,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>547</v>
       </c>
@@ -20306,7 +20306,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>618</v>
       </c>
@@ -20341,7 +20341,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>618</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>618</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="313" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>62</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>11</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>11</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>62</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>62</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>62</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
         <v>62</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>62</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>62</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>1249</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B323" s="1" t="s">
         <v>1256</v>
       </c>
@@ -20793,7 +20793,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>62</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>62</v>
       </c>
@@ -20863,7 +20863,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>62</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>62</v>
       </c>
@@ -20933,7 +20933,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>11</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>11</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B330" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21035,7 +21035,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B331" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21067,7 +21067,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B332" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21099,7 +21099,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B333" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B334" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B335" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B336" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B337" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21259,7 +21259,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>937</v>
       </c>
@@ -21294,7 +21294,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>937</v>
       </c>
@@ -21329,7 +21329,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>937</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>937</v>
       </c>
@@ -21399,7 +21399,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>937</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B343" s="1" t="s">
         <v>1339</v>
       </c>
@@ -21466,7 +21466,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B344" s="1" t="s">
         <v>1339</v>
       </c>
@@ -21498,7 +21498,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B345" s="1" t="s">
         <v>1339</v>
       </c>
@@ -21530,7 +21530,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B346" s="1" t="s">
         <v>1339</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B347" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21594,7 +21594,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>1362</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>1362</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>62</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B351" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21731,7 +21731,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B352" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B353" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B354" s="1" t="s">
         <v>1291</v>
       </c>
@@ -21827,7 +21827,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>62</v>
       </c>
@@ -21862,7 +21862,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>62</v>
       </c>
@@ -21897,12 +21897,12 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K357" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>62</v>
       </c>
@@ -21937,7 +21937,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>62</v>
       </c>
@@ -21972,7 +21972,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>62</v>
       </c>
@@ -22007,7 +22007,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>618</v>
       </c>
@@ -22042,7 +22042,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>62</v>
       </c>
@@ -22077,7 +22077,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>62</v>
       </c>
@@ -22112,7 +22112,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>1422</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>1422</v>
       </c>
@@ -22182,7 +22182,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>1422</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>1422</v>
       </c>
@@ -22252,7 +22252,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>1422</v>
       </c>
@@ -22287,7 +22287,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>1362</v>
       </c>
@@ -22322,7 +22322,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>1362</v>
       </c>
@@ -22357,7 +22357,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>62</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>1362</v>
       </c>
@@ -22427,7 +22427,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B373" s="1" t="s">
         <v>1339</v>
       </c>
@@ -22459,7 +22459,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B374" s="1" t="s">
         <v>1339</v>
       </c>
@@ -22491,7 +22491,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B375" s="1" t="s">
         <v>1339</v>
       </c>
@@ -22523,7 +22523,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B376" s="1" t="s">
         <v>1339</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B377" s="1" t="s">
         <v>1339</v>
       </c>
@@ -22587,7 +22587,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B378" s="1" t="s">
         <v>1339</v>
       </c>
@@ -22619,7 +22619,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B379" s="1" t="s">
         <v>1339</v>
       </c>
@@ -22651,7 +22651,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B380" s="1" t="s">
         <v>1339</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>789</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>582</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>582</v>
       </c>
@@ -22788,7 +22788,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>582</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>582</v>
       </c>
@@ -22858,7 +22858,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>582</v>
       </c>
@@ -22893,451 +22893,451 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B387" s="18" t="s">
+    <row r="387" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B387" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="C387" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D387" s="18" t="s">
+      <c r="C387" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" s="16" t="s">
         <v>1526</v>
       </c>
       <c r="E387" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F387" s="18" t="s">
+      <c r="F387" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="G387" s="18" t="s">
+      <c r="G387" s="16" t="s">
         <v>1529</v>
       </c>
-      <c r="H387" s="16" t="s">
+      <c r="H387" s="17" t="s">
         <v>1530</v>
       </c>
-      <c r="I387" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J387" s="17" t="s">
+      <c r="I387" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J387" s="18" t="s">
         <v>1244</v>
       </c>
-      <c r="K387" s="17" t="s">
+      <c r="K387" s="18" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B388" s="18"/>
-      <c r="C388" s="18"/>
-      <c r="D388" s="18"/>
+    <row r="388" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B388" s="16"/>
+      <c r="C388" s="16"/>
+      <c r="D388" s="16"/>
       <c r="E388" s="6" t="s">
         <v>1532</v>
       </c>
-      <c r="F388" s="18"/>
-      <c r="G388" s="18"/>
-      <c r="H388" s="16"/>
-      <c r="I388" s="16"/>
-      <c r="J388" s="17"/>
-      <c r="K388" s="17"/>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B389" s="18"/>
-      <c r="C389" s="18"/>
-      <c r="D389" s="18"/>
+      <c r="F388" s="16"/>
+      <c r="G388" s="16"/>
+      <c r="H388" s="17"/>
+      <c r="I388" s="17"/>
+      <c r="J388" s="18"/>
+      <c r="K388" s="18"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B389" s="16"/>
+      <c r="C389" s="16"/>
+      <c r="D389" s="16"/>
       <c r="E389" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="F389" s="18"/>
-      <c r="G389" s="18"/>
-      <c r="H389" s="16"/>
-      <c r="I389" s="16"/>
-      <c r="J389" s="17"/>
-      <c r="K389" s="17"/>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B390" s="18"/>
-      <c r="C390" s="18"/>
-      <c r="D390" s="18"/>
+      <c r="F389" s="16"/>
+      <c r="G389" s="16"/>
+      <c r="H389" s="17"/>
+      <c r="I389" s="17"/>
+      <c r="J389" s="18"/>
+      <c r="K389" s="18"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B390" s="16"/>
+      <c r="C390" s="16"/>
+      <c r="D390" s="16"/>
       <c r="E390" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F390" s="18"/>
-      <c r="G390" s="18"/>
-      <c r="H390" s="16"/>
-      <c r="I390" s="16"/>
-      <c r="J390" s="17"/>
-      <c r="K390" s="17"/>
-    </row>
-    <row r="391" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B391" s="18" t="s">
+      <c r="F390" s="16"/>
+      <c r="G390" s="16"/>
+      <c r="H390" s="17"/>
+      <c r="I390" s="17"/>
+      <c r="J390" s="18"/>
+      <c r="K390" s="18"/>
+    </row>
+    <row r="391" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B391" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="C391" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D391" s="18" t="s">
+      <c r="C391" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D391" s="16" t="s">
         <v>1534</v>
       </c>
       <c r="E391" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F391" s="18" t="s">
+      <c r="F391" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="G391" s="18" t="s">
+      <c r="G391" s="16" t="s">
         <v>1535</v>
       </c>
-      <c r="H391" s="16" t="s">
+      <c r="H391" s="17" t="s">
         <v>1530</v>
       </c>
-      <c r="I391" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J391" s="17" t="s">
+      <c r="I391" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J391" s="18" t="s">
         <v>1244</v>
       </c>
-      <c r="K391" s="17" t="s">
+      <c r="K391" s="18" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B392" s="18"/>
-      <c r="C392" s="18"/>
-      <c r="D392" s="18"/>
+    <row r="392" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B392" s="16"/>
+      <c r="C392" s="16"/>
+      <c r="D392" s="16"/>
       <c r="E392" s="6" t="s">
         <v>1532</v>
       </c>
-      <c r="F392" s="18"/>
-      <c r="G392" s="18"/>
-      <c r="H392" s="16"/>
-      <c r="I392" s="16"/>
-      <c r="J392" s="17"/>
-      <c r="K392" s="17"/>
-    </row>
-    <row r="393" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B393" s="18"/>
-      <c r="C393" s="18"/>
-      <c r="D393" s="18"/>
+      <c r="F392" s="16"/>
+      <c r="G392" s="16"/>
+      <c r="H392" s="17"/>
+      <c r="I392" s="17"/>
+      <c r="J392" s="18"/>
+      <c r="K392" s="18"/>
+    </row>
+    <row r="393" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B393" s="16"/>
+      <c r="C393" s="16"/>
+      <c r="D393" s="16"/>
       <c r="E393" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="F393" s="18"/>
-      <c r="G393" s="18"/>
-      <c r="H393" s="16"/>
-      <c r="I393" s="16"/>
-      <c r="J393" s="17"/>
-      <c r="K393" s="17"/>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B394" s="18"/>
-      <c r="C394" s="18"/>
-      <c r="D394" s="18"/>
+      <c r="F393" s="16"/>
+      <c r="G393" s="16"/>
+      <c r="H393" s="17"/>
+      <c r="I393" s="17"/>
+      <c r="J393" s="18"/>
+      <c r="K393" s="18"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B394" s="16"/>
+      <c r="C394" s="16"/>
+      <c r="D394" s="16"/>
       <c r="E394" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F394" s="18"/>
-      <c r="G394" s="18"/>
-      <c r="H394" s="16"/>
-      <c r="I394" s="16"/>
-      <c r="J394" s="17"/>
-      <c r="K394" s="17"/>
-    </row>
-    <row r="395" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B395" s="18" t="s">
+      <c r="F394" s="16"/>
+      <c r="G394" s="16"/>
+      <c r="H394" s="17"/>
+      <c r="I394" s="17"/>
+      <c r="J394" s="18"/>
+      <c r="K394" s="18"/>
+    </row>
+    <row r="395" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B395" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="C395" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D395" s="18" t="s">
+      <c r="C395" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D395" s="16" t="s">
         <v>1538</v>
       </c>
       <c r="E395" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F395" s="18" t="s">
+      <c r="F395" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="G395" s="18" t="s">
+      <c r="G395" s="16" t="s">
         <v>1539</v>
       </c>
-      <c r="H395" s="16" t="s">
+      <c r="H395" s="17" t="s">
         <v>1530</v>
       </c>
-      <c r="I395" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J395" s="17" t="s">
+      <c r="I395" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J395" s="18" t="s">
         <v>1244</v>
       </c>
-      <c r="K395" s="17" t="s">
+      <c r="K395" s="18" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B396" s="18"/>
-      <c r="C396" s="18"/>
-      <c r="D396" s="18"/>
+    <row r="396" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B396" s="16"/>
+      <c r="C396" s="16"/>
+      <c r="D396" s="16"/>
       <c r="E396" s="6" t="s">
         <v>1532</v>
       </c>
-      <c r="F396" s="18"/>
-      <c r="G396" s="18"/>
-      <c r="H396" s="16"/>
-      <c r="I396" s="16"/>
-      <c r="J396" s="17"/>
-      <c r="K396" s="17"/>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B397" s="18"/>
-      <c r="C397" s="18"/>
-      <c r="D397" s="18"/>
+      <c r="F396" s="16"/>
+      <c r="G396" s="16"/>
+      <c r="H396" s="17"/>
+      <c r="I396" s="17"/>
+      <c r="J396" s="18"/>
+      <c r="K396" s="18"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B397" s="16"/>
+      <c r="C397" s="16"/>
+      <c r="D397" s="16"/>
       <c r="E397" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="F397" s="18"/>
-      <c r="G397" s="18"/>
-      <c r="H397" s="16"/>
-      <c r="I397" s="16"/>
-      <c r="J397" s="17"/>
-      <c r="K397" s="17"/>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B398" s="18"/>
-      <c r="C398" s="18"/>
-      <c r="D398" s="18"/>
+      <c r="F397" s="16"/>
+      <c r="G397" s="16"/>
+      <c r="H397" s="17"/>
+      <c r="I397" s="17"/>
+      <c r="J397" s="18"/>
+      <c r="K397" s="18"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B398" s="16"/>
+      <c r="C398" s="16"/>
+      <c r="D398" s="16"/>
       <c r="E398" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F398" s="18"/>
-      <c r="G398" s="18"/>
-      <c r="H398" s="16"/>
-      <c r="I398" s="16"/>
-      <c r="J398" s="17"/>
-      <c r="K398" s="17"/>
-    </row>
-    <row r="399" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B399" s="18" t="s">
+      <c r="F398" s="16"/>
+      <c r="G398" s="16"/>
+      <c r="H398" s="17"/>
+      <c r="I398" s="17"/>
+      <c r="J398" s="18"/>
+      <c r="K398" s="18"/>
+    </row>
+    <row r="399" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B399" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="C399" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D399" s="18" t="s">
+      <c r="C399" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D399" s="16" t="s">
         <v>1541</v>
       </c>
       <c r="E399" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F399" s="18" t="s">
+      <c r="F399" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="G399" s="18" t="s">
+      <c r="G399" s="16" t="s">
         <v>1542</v>
       </c>
-      <c r="H399" s="16" t="s">
+      <c r="H399" s="17" t="s">
         <v>1530</v>
       </c>
-      <c r="I399" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J399" s="17" t="s">
+      <c r="I399" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J399" s="18" t="s">
         <v>1244</v>
       </c>
-      <c r="K399" s="17" t="s">
+      <c r="K399" s="18" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B400" s="18"/>
-      <c r="C400" s="18"/>
-      <c r="D400" s="18"/>
+    <row r="400" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B400" s="16"/>
+      <c r="C400" s="16"/>
+      <c r="D400" s="16"/>
       <c r="E400" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="F400" s="18"/>
-      <c r="G400" s="18"/>
-      <c r="H400" s="16"/>
-      <c r="I400" s="16"/>
-      <c r="J400" s="17"/>
-      <c r="K400" s="17"/>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B401" s="18"/>
-      <c r="C401" s="18"/>
-      <c r="D401" s="18"/>
+      <c r="F400" s="16"/>
+      <c r="G400" s="16"/>
+      <c r="H400" s="17"/>
+      <c r="I400" s="17"/>
+      <c r="J400" s="18"/>
+      <c r="K400" s="18"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B401" s="16"/>
+      <c r="C401" s="16"/>
+      <c r="D401" s="16"/>
       <c r="E401" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="F401" s="18"/>
-      <c r="G401" s="18"/>
-      <c r="H401" s="16"/>
-      <c r="I401" s="16"/>
-      <c r="J401" s="17"/>
-      <c r="K401" s="17"/>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B402" s="18"/>
-      <c r="C402" s="18"/>
-      <c r="D402" s="18"/>
+      <c r="F401" s="16"/>
+      <c r="G401" s="16"/>
+      <c r="H401" s="17"/>
+      <c r="I401" s="17"/>
+      <c r="J401" s="18"/>
+      <c r="K401" s="18"/>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B402" s="16"/>
+      <c r="C402" s="16"/>
+      <c r="D402" s="16"/>
       <c r="E402" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F402" s="18"/>
-      <c r="G402" s="18"/>
-      <c r="H402" s="16"/>
-      <c r="I402" s="16"/>
-      <c r="J402" s="17"/>
-      <c r="K402" s="17"/>
-    </row>
-    <row r="403" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B403" s="18" t="s">
+      <c r="F402" s="16"/>
+      <c r="G402" s="16"/>
+      <c r="H402" s="17"/>
+      <c r="I402" s="17"/>
+      <c r="J402" s="18"/>
+      <c r="K402" s="18"/>
+    </row>
+    <row r="403" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B403" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="C403" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D403" s="18" t="s">
+      <c r="C403" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D403" s="16" t="s">
         <v>1545</v>
       </c>
       <c r="E403" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F403" s="18" t="s">
+      <c r="F403" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="G403" s="18" t="s">
+      <c r="G403" s="16" t="s">
         <v>1546</v>
       </c>
-      <c r="H403" s="16" t="s">
+      <c r="H403" s="17" t="s">
         <v>1530</v>
       </c>
-      <c r="I403" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J403" s="17" t="s">
+      <c r="I403" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J403" s="18" t="s">
         <v>1244</v>
       </c>
-      <c r="K403" s="17" t="s">
+      <c r="K403" s="18" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B404" s="18"/>
-      <c r="C404" s="18"/>
-      <c r="D404" s="18"/>
+    <row r="404" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B404" s="16"/>
+      <c r="C404" s="16"/>
+      <c r="D404" s="16"/>
       <c r="E404" s="6" t="s">
         <v>1548</v>
       </c>
-      <c r="F404" s="18"/>
-      <c r="G404" s="18"/>
-      <c r="H404" s="16"/>
-      <c r="I404" s="16"/>
-      <c r="J404" s="17"/>
-      <c r="K404" s="17"/>
-    </row>
-    <row r="405" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B405" s="18"/>
-      <c r="C405" s="18"/>
-      <c r="D405" s="18"/>
+      <c r="F404" s="16"/>
+      <c r="G404" s="16"/>
+      <c r="H404" s="17"/>
+      <c r="I404" s="17"/>
+      <c r="J404" s="18"/>
+      <c r="K404" s="18"/>
+    </row>
+    <row r="405" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B405" s="16"/>
+      <c r="C405" s="16"/>
+      <c r="D405" s="16"/>
       <c r="E405" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="F405" s="18"/>
-      <c r="G405" s="18"/>
-      <c r="H405" s="16"/>
-      <c r="I405" s="16"/>
-      <c r="J405" s="17"/>
-      <c r="K405" s="17"/>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B406" s="18"/>
-      <c r="C406" s="18"/>
-      <c r="D406" s="18"/>
+      <c r="F405" s="16"/>
+      <c r="G405" s="16"/>
+      <c r="H405" s="17"/>
+      <c r="I405" s="17"/>
+      <c r="J405" s="18"/>
+      <c r="K405" s="18"/>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B406" s="16"/>
+      <c r="C406" s="16"/>
+      <c r="D406" s="16"/>
       <c r="E406" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F406" s="18"/>
-      <c r="G406" s="18"/>
-      <c r="H406" s="16"/>
-      <c r="I406" s="16"/>
-      <c r="J406" s="17"/>
-      <c r="K406" s="17"/>
-    </row>
-    <row r="407" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B407" s="18" t="s">
+      <c r="F406" s="16"/>
+      <c r="G406" s="16"/>
+      <c r="H406" s="17"/>
+      <c r="I406" s="17"/>
+      <c r="J406" s="18"/>
+      <c r="K406" s="18"/>
+    </row>
+    <row r="407" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B407" s="16" t="s">
         <v>1525</v>
       </c>
-      <c r="C407" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D407" s="18" t="s">
+      <c r="C407" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D407" s="16" t="s">
         <v>1549</v>
       </c>
       <c r="E407" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="F407" s="18" t="s">
+      <c r="F407" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="G407" s="18" t="s">
+      <c r="G407" s="16" t="s">
         <v>1550</v>
       </c>
-      <c r="H407" s="16" t="s">
+      <c r="H407" s="17" t="s">
         <v>1530</v>
       </c>
-      <c r="I407" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J407" s="17" t="s">
+      <c r="I407" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J407" s="18" t="s">
         <v>1244</v>
       </c>
-      <c r="K407" s="17" t="s">
+      <c r="K407" s="18" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B408" s="18"/>
-      <c r="C408" s="18"/>
-      <c r="D408" s="18"/>
+    <row r="408" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B408" s="16"/>
+      <c r="C408" s="16"/>
+      <c r="D408" s="16"/>
       <c r="E408" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="F408" s="18"/>
-      <c r="G408" s="18"/>
-      <c r="H408" s="16"/>
-      <c r="I408" s="16"/>
-      <c r="J408" s="17"/>
-      <c r="K408" s="17"/>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B409" s="18"/>
-      <c r="C409" s="18"/>
-      <c r="D409" s="18"/>
+      <c r="F408" s="16"/>
+      <c r="G408" s="16"/>
+      <c r="H408" s="17"/>
+      <c r="I408" s="17"/>
+      <c r="J408" s="18"/>
+      <c r="K408" s="18"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B409" s="16"/>
+      <c r="C409" s="16"/>
+      <c r="D409" s="16"/>
       <c r="E409" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="F409" s="18"/>
-      <c r="G409" s="18"/>
-      <c r="H409" s="16"/>
-      <c r="I409" s="16"/>
-      <c r="J409" s="17"/>
-      <c r="K409" s="17"/>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B410" s="18"/>
-      <c r="C410" s="18"/>
-      <c r="D410" s="18"/>
+      <c r="F409" s="16"/>
+      <c r="G409" s="16"/>
+      <c r="H409" s="17"/>
+      <c r="I409" s="17"/>
+      <c r="J409" s="18"/>
+      <c r="K409" s="18"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B410" s="16"/>
+      <c r="C410" s="16"/>
+      <c r="D410" s="16"/>
       <c r="E410" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F410" s="18"/>
-      <c r="G410" s="18"/>
-      <c r="H410" s="16"/>
-      <c r="I410" s="16"/>
-      <c r="J410" s="17"/>
-      <c r="K410" s="17"/>
-    </row>
-    <row r="411" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="F410" s="16"/>
+      <c r="G410" s="16"/>
+      <c r="H410" s="17"/>
+      <c r="I410" s="17"/>
+      <c r="J410" s="18"/>
+      <c r="K410" s="18"/>
+    </row>
+    <row r="411" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>11</v>
       </c>
@@ -23372,7 +23372,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>11</v>
       </c>
@@ -23386,7 +23386,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>62</v>
       </c>
@@ -23421,7 +23421,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>62</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>547</v>
       </c>
@@ -23491,7 +23491,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>11</v>
       </c>
@@ -23526,7 +23526,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>11</v>
       </c>
@@ -23561,7 +23561,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>11</v>
       </c>
@@ -23596,7 +23596,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>62</v>
       </c>
@@ -23631,7 +23631,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>1597</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>1597</v>
       </c>
@@ -23701,7 +23701,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>1597</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>1597</v>
       </c>
@@ -23771,7 +23771,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>62</v>
       </c>
@@ -23806,7 +23806,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>799</v>
       </c>
@@ -23841,7 +23841,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>799</v>
       </c>
@@ -23876,7 +23876,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>799</v>
       </c>
@@ -23911,7 +23911,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>799</v>
       </c>
@@ -23946,7 +23946,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>1635</v>
       </c>
@@ -23981,7 +23981,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>1114</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>1635</v>
       </c>
@@ -24051,7 +24051,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>1635</v>
       </c>
@@ -24086,7 +24086,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B433" s="8" t="s">
         <v>1654</v>
       </c>
@@ -24118,7 +24118,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B434" s="8" t="s">
         <v>1654</v>
       </c>
@@ -24150,7 +24150,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B435" s="9" t="s">
         <v>1654</v>
       </c>
@@ -24182,7 +24182,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B436" s="9" t="s">
         <v>1654</v>
       </c>
@@ -24214,7 +24214,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B437" s="9" t="s">
         <v>1654</v>
       </c>
@@ -24246,7 +24246,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B438" s="9" t="s">
         <v>1654</v>
       </c>
@@ -24278,7 +24278,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B439" s="9" t="s">
         <v>1654</v>
       </c>
@@ -24310,7 +24310,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B440" s="9" t="s">
         <v>1654</v>
       </c>
@@ -24342,7 +24342,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B441" s="1" t="s">
         <v>1680</v>
       </c>
@@ -24374,7 +24374,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B442" s="1" t="s">
         <v>1680</v>
       </c>
@@ -24406,7 +24406,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B443" s="1" t="s">
         <v>1680</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B444" s="1" t="s">
         <v>1680</v>
       </c>
@@ -24470,7 +24470,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>62</v>
       </c>
@@ -24505,7 +24505,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>62</v>
       </c>
@@ -24540,7 +24540,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>62</v>
       </c>
@@ -24575,7 +24575,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>62</v>
       </c>
@@ -24610,7 +24610,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>62</v>
       </c>
@@ -24645,7 +24645,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>62</v>
       </c>
@@ -24680,7 +24680,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>799</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>1597</v>
       </c>
@@ -24750,7 +24750,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>1735</v>
       </c>
@@ -24785,7 +24785,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>1735</v>
       </c>
@@ -24820,7 +24820,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>1735</v>
       </c>
@@ -24855,7 +24855,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>62</v>
       </c>
@@ -24890,7 +24890,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>1735</v>
       </c>
@@ -24925,7 +24925,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>62</v>
       </c>
@@ -24960,7 +24960,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>11</v>
       </c>
@@ -24995,7 +24995,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>11</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>11</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>11</v>
       </c>
@@ -25100,7 +25100,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>11</v>
       </c>
@@ -25135,7 +25135,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>11</v>
       </c>
@@ -25170,7 +25170,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>1597</v>
       </c>
@@ -25205,7 +25205,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>1597</v>
       </c>
@@ -25240,7 +25240,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>62</v>
       </c>
@@ -25275,7 +25275,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>62</v>
       </c>
@@ -25310,7 +25310,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>62</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>62</v>
       </c>
@@ -25380,7 +25380,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>62</v>
       </c>
@@ -25415,7 +25415,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>62</v>
       </c>
@@ -25450,7 +25450,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>62</v>
       </c>
@@ -25485,7 +25485,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>62</v>
       </c>
@@ -25520,7 +25520,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>506</v>
       </c>
@@ -25555,7 +25555,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>506</v>
       </c>
@@ -25590,7 +25590,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>506</v>
       </c>
@@ -25625,7 +25625,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>547</v>
       </c>
@@ -25660,7 +25660,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>582</v>
       </c>
@@ -25695,7 +25695,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>799</v>
       </c>
@@ -25730,7 +25730,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>582</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>1870</v>
       </c>
@@ -25800,7 +25800,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>1870</v>
       </c>
@@ -25835,7 +25835,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>582</v>
       </c>
@@ -25870,7 +25870,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>1888</v>
       </c>
@@ -25905,7 +25905,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="132" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>1888</v>
       </c>
@@ -25940,7 +25940,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>62</v>
       </c>
@@ -25975,7 +25975,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>62</v>
       </c>
@@ -26010,7 +26010,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>62</v>
       </c>
@@ -26045,7 +26045,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>547</v>
       </c>
@@ -26080,7 +26080,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="491" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>547</v>
       </c>
@@ -26115,7 +26115,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>547</v>
       </c>
@@ -26150,7 +26150,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>62</v>
       </c>
@@ -26185,7 +26185,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>62</v>
       </c>
@@ -26220,7 +26220,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="495" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>62</v>
       </c>
@@ -26255,7 +26255,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>547</v>
       </c>
@@ -26290,7 +26290,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>547</v>
       </c>
@@ -26325,7 +26325,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>547</v>
       </c>
@@ -26360,7 +26360,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>1888</v>
       </c>
@@ -26395,7 +26395,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>1888</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>1888</v>
       </c>
@@ -26465,7 +26465,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>1888</v>
       </c>
@@ -26500,7 +26500,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>1888</v>
       </c>
@@ -26535,7 +26535,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>62</v>
       </c>
@@ -26570,7 +26570,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>62</v>
       </c>
@@ -26605,7 +26605,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>582</v>
       </c>
@@ -26640,7 +26640,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>11</v>
       </c>
@@ -26675,7 +26675,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>62</v>
       </c>
@@ -26710,7 +26710,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>1992</v>
       </c>
@@ -26745,7 +26745,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>1992</v>
       </c>
@@ -26780,7 +26780,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>618</v>
       </c>
@@ -26815,7 +26815,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>506</v>
       </c>
@@ -26847,7 +26847,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>1888</v>
       </c>
@@ -26882,7 +26882,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>582</v>
       </c>
@@ -26917,7 +26917,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>582</v>
       </c>
@@ -26952,7 +26952,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>582</v>
       </c>
@@ -26987,7 +26987,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>582</v>
       </c>
@@ -27022,7 +27022,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="518" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>582</v>
       </c>
@@ -27057,7 +27057,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="519" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>582</v>
       </c>
@@ -27092,7 +27092,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="520" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>11</v>
       </c>
@@ -27127,7 +27127,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="521" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>11</v>
       </c>
@@ -27162,7 +27162,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>11</v>
       </c>
@@ -27197,7 +27197,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>11</v>
       </c>
@@ -27232,7 +27232,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>11</v>
       </c>
@@ -27267,7 +27267,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>11</v>
       </c>
@@ -27302,7 +27302,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>11</v>
       </c>
@@ -27337,7 +27337,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>11</v>
       </c>
@@ -27372,7 +27372,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="528" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>11</v>
       </c>
@@ -27407,7 +27407,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>11</v>
       </c>
@@ -27442,7 +27442,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>11</v>
       </c>
@@ -27477,7 +27477,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="531" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>11</v>
       </c>
@@ -27512,7 +27512,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="532" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>11</v>
       </c>
@@ -27547,7 +27547,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="533" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>11</v>
       </c>
@@ -27582,7 +27582,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>11</v>
       </c>
@@ -27617,7 +27617,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="535" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>11</v>
       </c>
@@ -27652,7 +27652,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="536" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>11</v>
       </c>
@@ -27687,7 +27687,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>11</v>
       </c>
@@ -27722,7 +27722,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>11</v>
       </c>
@@ -27757,7 +27757,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>11</v>
       </c>
@@ -27792,7 +27792,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>11</v>
       </c>
@@ -27827,7 +27827,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>11</v>
       </c>
@@ -27862,7 +27862,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="542" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>11</v>
       </c>
@@ -27897,7 +27897,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>11</v>
       </c>
@@ -27932,7 +27932,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>11</v>
       </c>
@@ -27967,7 +27967,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>11</v>
       </c>
@@ -28002,7 +28002,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>11</v>
       </c>
@@ -28037,7 +28037,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>11</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>11</v>
       </c>
@@ -28104,7 +28104,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>11</v>
       </c>
@@ -28139,7 +28139,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>11</v>
       </c>
@@ -28174,7 +28174,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>11</v>
       </c>
@@ -28209,7 +28209,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>11</v>
       </c>
@@ -28244,7 +28244,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="553" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>11</v>
       </c>
@@ -28279,7 +28279,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="554" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>11</v>
       </c>
@@ -28314,7 +28314,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>11</v>
       </c>
@@ -28346,7 +28346,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>11</v>
       </c>
@@ -28381,7 +28381,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>11</v>
       </c>
@@ -28416,7 +28416,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>11</v>
       </c>
@@ -28451,7 +28451,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>11</v>
       </c>
@@ -28486,7 +28486,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>11</v>
       </c>
@@ -28521,7 +28521,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="561" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>11</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="562" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>11</v>
       </c>
@@ -28591,7 +28591,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="563" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>11</v>
       </c>
@@ -28626,7 +28626,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="564" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>11</v>
       </c>
@@ -28661,7 +28661,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="565" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>11</v>
       </c>
@@ -28696,7 +28696,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="566" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>11</v>
       </c>
@@ -28731,7 +28731,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="567" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>11</v>
       </c>
@@ -28766,7 +28766,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="568" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>11</v>
       </c>
@@ -28801,7 +28801,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="569" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>11</v>
       </c>
@@ -28836,7 +28836,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="570" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>11</v>
       </c>
@@ -28871,7 +28871,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="571" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>582</v>
       </c>
@@ -28906,7 +28906,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="572" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>582</v>
       </c>
@@ -28941,7 +28941,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="573" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>11</v>
       </c>
@@ -28976,7 +28976,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="574" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>11</v>
       </c>
@@ -29011,7 +29011,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="575" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>789</v>
       </c>
@@ -29046,7 +29046,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="576" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>789</v>
       </c>
@@ -29081,7 +29081,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="577" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>789</v>
       </c>
@@ -29116,7 +29116,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="578" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>789</v>
       </c>
@@ -29151,7 +29151,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="579" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>789</v>
       </c>
@@ -29186,7 +29186,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="580" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>789</v>
       </c>
@@ -29221,7 +29221,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="581" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>789</v>
       </c>
@@ -29256,7 +29256,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>789</v>
       </c>
@@ -29291,7 +29291,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>789</v>
       </c>
@@ -29326,7 +29326,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="584" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>789</v>
       </c>
@@ -29361,7 +29361,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="585" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>789</v>
       </c>
@@ -29396,7 +29396,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="586" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>789</v>
       </c>
@@ -29431,7 +29431,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="587" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>789</v>
       </c>
@@ -29466,7 +29466,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="588" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>618</v>
       </c>
@@ -29501,7 +29501,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="589" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>618</v>
       </c>
@@ -29536,7 +29536,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="590" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>618</v>
       </c>
@@ -29571,7 +29571,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="591" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>618</v>
       </c>
@@ -29606,7 +29606,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="592" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>1888</v>
       </c>
@@ -29641,7 +29641,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="593" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>1888</v>
       </c>
@@ -29676,7 +29676,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>1888</v>
       </c>
@@ -29711,7 +29711,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>1888</v>
       </c>
@@ -29746,7 +29746,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="596" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="B596" s="1" t="s">
         <v>2349</v>
       </c>
@@ -29778,7 +29778,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="597" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="B597" s="1" t="s">
         <v>2349</v>
       </c>
@@ -29810,7 +29810,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="598" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B598" s="1" t="s">
         <v>2349</v>
       </c>
@@ -29842,7 +29842,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="599" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B599" s="1" t="s">
         <v>2349</v>
       </c>
@@ -29874,7 +29874,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="600" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="B600" s="1" t="s">
         <v>2349</v>
       </c>
@@ -29906,7 +29906,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="B601" s="1" t="s">
         <v>2349</v>
       </c>
@@ -29938,7 +29938,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="602" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B602" s="1" t="s">
         <v>2349</v>
       </c>
@@ -29970,7 +29970,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="603" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B603" s="1" t="s">
         <v>2349</v>
       </c>
@@ -30002,7 +30002,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="604" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B604" s="1" t="s">
         <v>2349</v>
       </c>
@@ -30034,7 +30034,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="605" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B605" s="1" t="s">
         <v>2349</v>
       </c>
@@ -30066,7 +30066,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="606" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B606" s="1" t="s">
         <v>2349</v>
       </c>
@@ -30098,7 +30098,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="607" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B607" s="1" t="s">
         <v>2381</v>
       </c>
@@ -30130,7 +30130,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="608" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>11</v>
       </c>
@@ -30165,7 +30165,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="609" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>11</v>
       </c>
@@ -30200,7 +30200,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="610" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>11</v>
       </c>
@@ -30235,7 +30235,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>11</v>
       </c>
@@ -30270,7 +30270,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="612" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>11</v>
       </c>
@@ -30305,7 +30305,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>11</v>
       </c>
@@ -30340,7 +30340,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>11</v>
       </c>
@@ -30375,7 +30375,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="615" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>11</v>
       </c>
@@ -30410,7 +30410,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="616" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B616" s="1" t="s">
         <v>2424</v>
       </c>
@@ -30442,7 +30442,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="617" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B617" s="1" t="s">
         <v>2424</v>
       </c>
@@ -30474,7 +30474,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="618" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>11</v>
       </c>
@@ -30509,7 +30509,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="619" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>11</v>
       </c>
@@ -30544,7 +30544,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>11</v>
       </c>
@@ -30579,7 +30579,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="621" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>11</v>
       </c>
@@ -30614,7 +30614,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="622" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>11</v>
       </c>
@@ -30649,7 +30649,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="623" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>11</v>
       </c>
@@ -30684,7 +30684,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="624" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>11</v>
       </c>
@@ -30719,7 +30719,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>11</v>
       </c>
@@ -30754,7 +30754,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>11</v>
       </c>
@@ -30789,7 +30789,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="627" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>11</v>
       </c>
@@ -30824,7 +30824,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="628" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>11</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="629" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>11</v>
       </c>
@@ -30894,7 +30894,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="630" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>11</v>
       </c>
@@ -30929,7 +30929,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="631" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>11</v>
       </c>
@@ -30964,7 +30964,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="632" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>11</v>
       </c>
@@ -30999,7 +30999,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="633" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>11</v>
       </c>
@@ -31034,7 +31034,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="634" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>11</v>
       </c>
@@ -31069,7 +31069,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>11</v>
       </c>
@@ -31104,7 +31104,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>11</v>
       </c>
@@ -31139,7 +31139,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="637" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>11</v>
       </c>
@@ -31174,7 +31174,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="638" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>11</v>
       </c>
@@ -31209,7 +31209,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="639" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>11</v>
       </c>
@@ -31244,7 +31244,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>11</v>
       </c>
@@ -31279,7 +31279,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="641" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>11</v>
       </c>
@@ -31314,7 +31314,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="642" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>11</v>
       </c>
@@ -31349,7 +31349,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="643" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>11</v>
       </c>
@@ -31384,7 +31384,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="644" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>11</v>
       </c>
@@ -31419,7 +31419,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="645" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>11</v>
       </c>
@@ -31454,7 +31454,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="646" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>11</v>
       </c>
@@ -31489,7 +31489,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="647" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>11</v>
       </c>
@@ -31524,7 +31524,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="648" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>11</v>
       </c>
@@ -31559,7 +31559,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="649" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>11</v>
       </c>
@@ -31594,7 +31594,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="650" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>11</v>
       </c>
@@ -31629,7 +31629,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="651" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>11</v>
       </c>
@@ -31664,7 +31664,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="652" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>11</v>
       </c>
@@ -31699,7 +31699,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="653" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>11</v>
       </c>
@@ -31734,7 +31734,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="654" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>11</v>
       </c>
@@ -31769,7 +31769,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="655" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>11</v>
       </c>
@@ -31804,7 +31804,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="656" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>11</v>
       </c>
@@ -31839,7 +31839,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="657" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>11</v>
       </c>
@@ -31874,7 +31874,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="658" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>11</v>
       </c>
@@ -31909,7 +31909,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="659" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>11</v>
       </c>
@@ -31944,7 +31944,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="660" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>11</v>
       </c>
@@ -31979,7 +31979,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="661" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>11</v>
       </c>
@@ -32014,7 +32014,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="662" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>11</v>
       </c>
@@ -32049,7 +32049,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="663" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>11</v>
       </c>
@@ -32084,7 +32084,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="664" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>11</v>
       </c>
@@ -32119,7 +32119,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="665" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>11</v>
       </c>
@@ -32154,7 +32154,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="666" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>11</v>
       </c>
@@ -32189,7 +32189,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="667" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>11</v>
       </c>
@@ -32224,7 +32224,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="668" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>11</v>
       </c>
@@ -32259,7 +32259,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="669" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>11</v>
       </c>
@@ -32294,7 +32294,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="670" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>11</v>
       </c>
@@ -32329,7 +32329,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="671" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>11</v>
       </c>
@@ -32364,7 +32364,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="672" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>11</v>
       </c>
@@ -32399,7 +32399,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="673" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>11</v>
       </c>
@@ -32434,7 +32434,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="674" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>11</v>
       </c>
@@ -32469,7 +32469,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="675" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>11</v>
       </c>
@@ -32504,7 +32504,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="676" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>11</v>
       </c>
@@ -32539,7 +32539,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="677" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>11</v>
       </c>
@@ -32574,7 +32574,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="678" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>11</v>
       </c>
@@ -32609,7 +32609,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="679" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>11</v>
       </c>
@@ -32644,7 +32644,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="680" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>2657</v>
       </c>
@@ -32679,7 +32679,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="681" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>582</v>
       </c>
@@ -32714,7 +32714,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="682" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>582</v>
       </c>
@@ -32749,7 +32749,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="683" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>62</v>
       </c>
@@ -32784,7 +32784,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="684" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>1888</v>
       </c>
@@ -32819,7 +32819,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="685" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>1888</v>
       </c>
@@ -32854,7 +32854,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="686" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>1888</v>
       </c>
@@ -32889,7 +32889,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="687" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>582</v>
       </c>
@@ -32924,7 +32924,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="688" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>582</v>
       </c>
@@ -32959,7 +32959,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="689" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>582</v>
       </c>
@@ -32994,7 +32994,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="690" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>582</v>
       </c>
@@ -33029,7 +33029,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>11</v>
       </c>
@@ -33064,7 +33064,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="692" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>62</v>
       </c>
@@ -33099,7 +33099,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="693" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>62</v>
       </c>
@@ -33134,7 +33134,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="694" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>62</v>
       </c>
@@ -33169,7 +33169,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="695" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>2732</v>
       </c>
@@ -33204,7 +33204,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="696" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>2732</v>
       </c>
@@ -33239,7 +33239,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="697" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>547</v>
       </c>
@@ -33274,7 +33274,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="698" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>547</v>
       </c>
@@ -33309,7 +33309,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="699" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>547</v>
       </c>
@@ -33344,7 +33344,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="700" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>11</v>
       </c>
@@ -33379,7 +33379,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="701" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>11</v>
       </c>
@@ -33414,7 +33414,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="702" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>11</v>
       </c>
@@ -33449,7 +33449,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="703" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>582</v>
       </c>
@@ -33484,7 +33484,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="704" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>582</v>
       </c>
@@ -33519,7 +33519,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="705" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>547</v>
       </c>
@@ -33554,7 +33554,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="706" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>547</v>
       </c>
@@ -33589,7 +33589,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="707" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>62</v>
       </c>
@@ -33624,7 +33624,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="708" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>62</v>
       </c>
@@ -33659,7 +33659,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="709" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>582</v>
       </c>
@@ -33694,7 +33694,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="710" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>582</v>
       </c>
@@ -33726,7 +33726,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="711" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>11</v>
       </c>
@@ -33758,7 +33758,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="712" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>547</v>
       </c>
@@ -33793,7 +33793,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="713" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>789</v>
       </c>
@@ -33828,7 +33828,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="714" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
         <v>582</v>
       </c>
@@ -33863,7 +33863,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="715" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>582</v>
       </c>
@@ -33898,7 +33898,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="716" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>62</v>
       </c>
@@ -33933,7 +33933,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="717" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>62</v>
       </c>
@@ -33968,7 +33968,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="718" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>62</v>
       </c>
@@ -34000,7 +34000,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="719" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>62</v>
       </c>
@@ -34035,7 +34035,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="720" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>62</v>
       </c>
@@ -34070,7 +34070,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="721" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>62</v>
       </c>
@@ -34105,7 +34105,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="722" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>62</v>
       </c>
@@ -34140,7 +34140,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="723" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
         <v>62</v>
       </c>
@@ -34175,7 +34175,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="724" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
         <v>62</v>
       </c>
@@ -34210,7 +34210,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="725" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
         <v>62</v>
       </c>
@@ -34245,7 +34245,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="726" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
         <v>62</v>
       </c>
@@ -34280,7 +34280,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="727" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
         <v>62</v>
       </c>
@@ -34315,7 +34315,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="728" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>62</v>
       </c>
@@ -34350,7 +34350,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="729" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
         <v>11</v>
       </c>
@@ -34385,7 +34385,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="730" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B730" s="1" t="s">
         <v>2877</v>
       </c>
@@ -34417,7 +34417,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="731" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B731" s="1" t="s">
         <v>2877</v>
       </c>
@@ -34449,7 +34449,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B732" s="1" t="s">
         <v>2877</v>
       </c>
@@ -34481,7 +34481,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B733" s="1" t="s">
         <v>2877</v>
       </c>
@@ -34513,7 +34513,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B734" s="1" t="s">
         <v>2877</v>
       </c>
@@ -34545,7 +34545,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B735" s="1" t="s">
         <v>2877</v>
       </c>
@@ -34577,7 +34577,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="736" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B736" s="1" t="s">
         <v>2877</v>
       </c>
@@ -34609,7 +34609,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="737" spans="2:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B737" s="1" t="s">
         <v>2877</v>
       </c>
@@ -34641,7 +34641,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="738" spans="2:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B738" s="1" t="s">
         <v>2877</v>
       </c>
@@ -34673,65 +34673,27 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="739" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J739" s="1"/>
     </row>
-    <row r="740" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J740" s="1"/>
     </row>
-    <row r="741" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J741" s="1"/>
     </row>
-    <row r="742" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J742" s="1"/>
     </row>
-    <row r="743" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J743" s="1"/>
     </row>
-    <row r="744" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J744" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K730" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="54">
-    <mergeCell ref="B407:B410"/>
-    <mergeCell ref="C407:C410"/>
-    <mergeCell ref="D407:D410"/>
-    <mergeCell ref="F407:F410"/>
-    <mergeCell ref="G407:G410"/>
-    <mergeCell ref="B403:B406"/>
-    <mergeCell ref="C403:C406"/>
-    <mergeCell ref="D403:D406"/>
-    <mergeCell ref="F403:F406"/>
-    <mergeCell ref="G403:G406"/>
-    <mergeCell ref="H399:H402"/>
-    <mergeCell ref="I399:I402"/>
-    <mergeCell ref="J399:J402"/>
-    <mergeCell ref="K399:K402"/>
-    <mergeCell ref="H407:H410"/>
-    <mergeCell ref="I407:I410"/>
-    <mergeCell ref="H403:H406"/>
-    <mergeCell ref="J407:J410"/>
-    <mergeCell ref="K407:K410"/>
-    <mergeCell ref="I403:I406"/>
-    <mergeCell ref="J403:J406"/>
-    <mergeCell ref="K403:K406"/>
-    <mergeCell ref="B399:B402"/>
-    <mergeCell ref="C399:C402"/>
-    <mergeCell ref="D399:D402"/>
-    <mergeCell ref="F399:F402"/>
-    <mergeCell ref="G399:G402"/>
-    <mergeCell ref="J391:J394"/>
-    <mergeCell ref="K391:K394"/>
-    <mergeCell ref="B395:B398"/>
-    <mergeCell ref="C395:C398"/>
-    <mergeCell ref="D395:D398"/>
-    <mergeCell ref="F395:F398"/>
-    <mergeCell ref="G395:G398"/>
-    <mergeCell ref="H395:H398"/>
-    <mergeCell ref="I395:I398"/>
-    <mergeCell ref="J395:J398"/>
-    <mergeCell ref="K395:K398"/>
     <mergeCell ref="I387:I390"/>
     <mergeCell ref="J387:J390"/>
     <mergeCell ref="K387:K390"/>
@@ -34748,6 +34710,44 @@
     <mergeCell ref="F387:F390"/>
     <mergeCell ref="G387:G390"/>
     <mergeCell ref="H387:H390"/>
+    <mergeCell ref="J391:J394"/>
+    <mergeCell ref="K391:K394"/>
+    <mergeCell ref="B395:B398"/>
+    <mergeCell ref="C395:C398"/>
+    <mergeCell ref="D395:D398"/>
+    <mergeCell ref="F395:F398"/>
+    <mergeCell ref="G395:G398"/>
+    <mergeCell ref="H395:H398"/>
+    <mergeCell ref="I395:I398"/>
+    <mergeCell ref="J395:J398"/>
+    <mergeCell ref="K395:K398"/>
+    <mergeCell ref="B399:B402"/>
+    <mergeCell ref="C399:C402"/>
+    <mergeCell ref="D399:D402"/>
+    <mergeCell ref="F399:F402"/>
+    <mergeCell ref="G399:G402"/>
+    <mergeCell ref="H399:H402"/>
+    <mergeCell ref="I399:I402"/>
+    <mergeCell ref="J399:J402"/>
+    <mergeCell ref="K399:K402"/>
+    <mergeCell ref="H407:H410"/>
+    <mergeCell ref="I407:I410"/>
+    <mergeCell ref="H403:H406"/>
+    <mergeCell ref="J407:J410"/>
+    <mergeCell ref="K407:K410"/>
+    <mergeCell ref="I403:I406"/>
+    <mergeCell ref="J403:J406"/>
+    <mergeCell ref="K403:K406"/>
+    <mergeCell ref="B403:B406"/>
+    <mergeCell ref="C403:C406"/>
+    <mergeCell ref="D403:D406"/>
+    <mergeCell ref="F403:F406"/>
+    <mergeCell ref="G403:G406"/>
+    <mergeCell ref="B407:B410"/>
+    <mergeCell ref="C407:C410"/>
+    <mergeCell ref="D407:D410"/>
+    <mergeCell ref="F407:F410"/>
+    <mergeCell ref="G407:G410"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34760,25 +34760,25 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -34813,7 +34813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="s">
@@ -34845,7 +34845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15" t="s">
@@ -34877,7 +34877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
@@ -34909,7 +34909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
@@ -34941,7 +34941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="s">
@@ -34973,7 +34973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
@@ -35005,7 +35005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
@@ -35037,7 +35037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
@@ -35069,7 +35069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
@@ -35101,7 +35101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
@@ -35133,7 +35133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
@@ -35157,7 +35157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
@@ -35181,7 +35181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
@@ -35205,7 +35205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -35217,7 +35217,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -35229,7 +35229,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -35241,7 +35241,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -35253,7 +35253,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -35265,7 +35265,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -35277,7 +35277,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -35289,7 +35289,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -35301,7 +35301,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -35313,7 +35313,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -35325,7 +35325,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -35337,7 +35337,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -35349,7 +35349,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -35361,7 +35361,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -35373,7 +35373,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -35385,7 +35385,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -35397,7 +35397,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -35409,7 +35409,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -35421,7 +35421,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -35433,7 +35433,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -35445,7 +35445,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -35457,7 +35457,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -35469,7 +35469,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -35481,7 +35481,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -35493,7 +35493,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -35505,7 +35505,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -35517,7 +35517,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -35529,7 +35529,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -35541,7 +35541,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -35553,7 +35553,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -35565,7 +35565,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -35577,7 +35577,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -35589,7 +35589,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -35601,7 +35601,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -35613,7 +35613,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -35625,7 +35625,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -35637,7 +35637,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -35649,7 +35649,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -35661,7 +35661,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -35673,7 +35673,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -35685,7 +35685,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -35697,7 +35697,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -35709,7 +35709,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -35728,12 +35728,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0277092-f208-41fd-9f2b-ef47bd2126a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="23773914-4b94-40ee-8997-01f035a39c46" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35974,20 +35976,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0277092-f208-41fd-9f2b-ef47bd2126a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="23773914-4b94-40ee-8997-01f035a39c46" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D246E6F4-4C47-49FE-984C-FDBFC4A2FFEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D6E3D79-480A-4B7C-8B61-D2B9855C3317}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="23773914-4b94-40ee-8997-01f035a39c46"/>
+    <ds:schemaRef ds:uri="e0277092-f208-41fd-9f2b-ef47bd2126a3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36012,18 +36021,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D6E3D79-480A-4B7C-8B61-D2B9855C3317}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D246E6F4-4C47-49FE-984C-FDBFC4A2FFEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="23773914-4b94-40ee-8997-01f035a39c46"/>
-    <ds:schemaRef ds:uri="e0277092-f208-41fd-9f2b-ef47bd2126a3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>